--- a/量产云平台研发验证报告.xlsx
+++ b/量产云平台研发验证报告.xlsx
@@ -8,9 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
-    <sheet name="功能测试" sheetId="3" r:id="rId2"/>
-    <sheet name="压力测试" sheetId="13" r:id="rId3"/>
-    <sheet name="权限测试" sheetId="14" r:id="rId4"/>
+    <sheet name="权限测试" sheetId="14" r:id="rId2"/>
+    <sheet name="功能测试" sheetId="3" r:id="rId3"/>
+    <sheet name="压力测试" sheetId="13" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1662,7 +1662,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1705,9 +1705,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1726,9 +1723,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1741,161 +1735,281 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1903,132 +2017,12 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2083,6 +2077,12 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2101,11 +2101,14 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2585,8 +2588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:N9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2601,538 +2604,576 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="47.25" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="55"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="53"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="58"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="46" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="19" t="s">
+      <c r="I3" s="52"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="72" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="73"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="55"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
       <c r="L4" s="14"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="57"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="38"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
       <c r="L5" s="15"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="67"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="37"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="76" t="s">
+      <c r="B6" s="46"/>
+      <c r="C6" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="78" t="s">
+      <c r="D6" s="48"/>
+      <c r="E6" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79" t="s">
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68" t="s">
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="68"/>
-      <c r="N6" s="69"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="40"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="33" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="35"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="71"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A8" s="64"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="33" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="35"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="71"/>
     </row>
     <row r="9" spans="1:14" ht="157.5" customHeight="1">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="44"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="67"/>
     </row>
     <row r="10" spans="1:14" ht="57.75" customHeight="1">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="44"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="67"/>
     </row>
     <row r="11" spans="1:14" ht="15">
       <c r="A11" s="9"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
     </row>
     <row r="12" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="32"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="28"/>
     </row>
     <row r="13" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A13" s="37"/>
-      <c r="B13" s="27" t="s">
+      <c r="A13" s="73"/>
+      <c r="B13" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="32"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="28"/>
     </row>
     <row r="14" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A14" s="37"/>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="73"/>
+      <c r="B14" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="32"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="28"/>
     </row>
     <row r="15" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A15" s="37"/>
-      <c r="B15" s="27" t="s">
+      <c r="A15" s="73"/>
+      <c r="B15" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="32"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="28"/>
     </row>
     <row r="16" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A16" s="37"/>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="73"/>
+      <c r="B16" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="32"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="28"/>
     </row>
     <row r="17" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A17" s="37"/>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="73"/>
+      <c r="B17" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="32"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="28"/>
     </row>
     <row r="18" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A18" s="37"/>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="73"/>
+      <c r="B18" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="32"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="28"/>
     </row>
     <row r="19" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A19" s="37"/>
-      <c r="B19" s="27" t="s">
+      <c r="A19" s="73"/>
+      <c r="B19" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="32"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="28"/>
     </row>
     <row r="20" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A20" s="37"/>
-      <c r="B20" s="27" t="s">
+      <c r="A20" s="73"/>
+      <c r="B20" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="32"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="28"/>
     </row>
     <row r="21" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A21" s="37"/>
-      <c r="B21" s="27" t="s">
+      <c r="A21" s="73"/>
+      <c r="B21" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="32"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="28"/>
     </row>
     <row r="22" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A22" s="38"/>
-      <c r="B22" s="27" t="s">
+      <c r="A22" s="74"/>
+      <c r="B22" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="32"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="28"/>
     </row>
     <row r="23" spans="1:14" ht="16.5">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="32"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="28"/>
     </row>
     <row r="24" spans="1:14" ht="16.5">
-      <c r="A24" s="37"/>
-      <c r="B24" s="27" t="s">
+      <c r="A24" s="73"/>
+      <c r="B24" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="32"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="28"/>
     </row>
     <row r="25" spans="1:14" ht="16.5">
-      <c r="A25" s="37"/>
-      <c r="B25" s="27" t="s">
+      <c r="A25" s="73"/>
+      <c r="B25" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="32"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="28"/>
     </row>
     <row r="26" spans="1:14" ht="16.5">
-      <c r="A26" s="37"/>
-      <c r="B26" s="30" t="s">
+      <c r="A26" s="73"/>
+      <c r="B26" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="32"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="28"/>
     </row>
     <row r="27" spans="1:14" ht="16.5">
-      <c r="A27" s="38"/>
-      <c r="B27" s="27" t="s">
+      <c r="A27" s="74"/>
+      <c r="B27" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="32"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="28"/>
     </row>
     <row r="28" spans="1:14" ht="16.5">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="32"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:N20"/>
-    <mergeCell ref="E17:N17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:N18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:N19"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:N13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:N14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:N23"/>
+    <mergeCell ref="E28:N28"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="E25:N25"/>
+    <mergeCell ref="E24:N24"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="C8:N8"/>
+    <mergeCell ref="E15:N15"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:N27"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A12:A22"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:N12"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:N22"/>
+    <mergeCell ref="E16:N16"/>
+    <mergeCell ref="E21:N21"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:N9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:N10"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="A7:B8"/>
@@ -3149,51 +3190,13 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:N9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:N10"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="C8:N8"/>
-    <mergeCell ref="E15:N15"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:N27"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A12:A22"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:N12"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:N22"/>
-    <mergeCell ref="E16:N16"/>
-    <mergeCell ref="E21:N21"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:N23"/>
-    <mergeCell ref="E28:N28"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="E25:N25"/>
-    <mergeCell ref="E24:N24"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:N13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:N14"/>
-    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:N20"/>
+    <mergeCell ref="E17:N17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:N18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:N19"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3204,682 +3207,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="19.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="3" customWidth="1"/>
-    <col min="4" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="24.375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="9" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="115.5" customHeight="1">
-      <c r="A1" s="109" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A2" s="111"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="18" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="115" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="38.25" customHeight="1">
-      <c r="A5" s="80" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="121"/>
-    </row>
-    <row r="6" spans="1:9" ht="36" customHeight="1">
-      <c r="A6" s="80"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="122"/>
-    </row>
-    <row r="7" spans="1:9" ht="77.25" customHeight="1">
-      <c r="A7" s="80"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="122"/>
-    </row>
-    <row r="8" spans="1:9" ht="48" hidden="1" customHeight="1">
-      <c r="A8" s="80"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="123"/>
-    </row>
-    <row r="9" spans="1:9" ht="48" customHeight="1">
-      <c r="A9" s="80"/>
-      <c r="B9" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="86" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" ht="174" customHeight="1">
-      <c r="A10" s="80"/>
-      <c r="B10" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" ht="173.25" customHeight="1">
-      <c r="A11" s="80"/>
-      <c r="B11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="114" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A12" s="81" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="121"/>
-    </row>
-    <row r="13" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A13" s="82"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="122"/>
-    </row>
-    <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A14" s="82"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="122"/>
-    </row>
-    <row r="15" spans="1:9" ht="75" customHeight="1">
-      <c r="A15" s="82"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="123"/>
-    </row>
-    <row r="16" spans="1:9" ht="72" customHeight="1">
-      <c r="A16" s="82"/>
-      <c r="B16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="106" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" ht="200.25" customHeight="1">
-      <c r="A17" s="82"/>
-      <c r="B17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="86" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" ht="186.75" customHeight="1">
-      <c r="A18" s="82"/>
-      <c r="B18" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="107" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" ht="60.75" customHeight="1">
-      <c r="A19" s="83" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="86" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" ht="92.25" customHeight="1">
-      <c r="A20" s="83"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="86" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" ht="117.75" customHeight="1">
-      <c r="A21" s="83"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="86" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" ht="123.75" customHeight="1">
-      <c r="A22" s="83"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="86" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" ht="216" customHeight="1">
-      <c r="A23" s="83"/>
-      <c r="B23" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="86" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" ht="216" customHeight="1">
-      <c r="A24" s="83"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" ht="189" customHeight="1">
-      <c r="A25" s="82"/>
-      <c r="B25" s="95"/>
-      <c r="C25" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="96" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" ht="186.75" customHeight="1">
-      <c r="A26" s="82"/>
-      <c r="B26" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="86" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" ht="173.25" customHeight="1">
-      <c r="A27" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" ht="156" customHeight="1">
-      <c r="A28" s="85"/>
-      <c r="B28" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="123.75" customHeight="1">
-      <c r="A29" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="86" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="C12:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G8"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="I5:I8"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B12:B15"/>
-  </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="2" max="2" width="28.25" customWidth="1"/>
-    <col min="9" max="9" width="43.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="52.5" customHeight="1">
-      <c r="A1" s="109" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1">
-      <c r="A2" s="140"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.5">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="16.5">
-      <c r="A4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="115" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A5" s="141" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="124" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="97" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="137"/>
-    </row>
-    <row r="6" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A6" s="80"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="138"/>
-    </row>
-    <row r="7" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A7" s="80"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="138"/>
-    </row>
-    <row r="8" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A8" s="80"/>
-      <c r="B8" s="125"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="138"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A9" s="80"/>
-      <c r="B9" s="125"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="138"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A10" s="80"/>
-      <c r="B10" s="125"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="135"/>
-      <c r="I10" s="138"/>
-    </row>
-    <row r="11" spans="1:9" ht="324.75" customHeight="1">
-      <c r="A11" s="80"/>
-      <c r="B11" s="126"/>
-      <c r="C11" s="132"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="139"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="C5:G11"/>
-    <mergeCell ref="H5:H11"/>
-    <mergeCell ref="I5:I11"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:A11"/>
-  </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E282"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3908,2764 +3240,2710 @@
       <c r="E2" s="147"/>
     </row>
     <row r="3" spans="1:5" ht="27.75" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="24" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="141" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="148" t="s">
+      <c r="B4" s="141" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A5" s="148"/>
-      <c r="B5" s="148"/>
-      <c r="C5" s="25" t="s">
+      <c r="A5" s="141"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A6" s="148"/>
-      <c r="B6" s="148"/>
-      <c r="C6" s="25" t="s">
+      <c r="A6" s="141"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="149"/>
-      <c r="E6" s="149"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A7" s="148"/>
-      <c r="B7" s="148"/>
-      <c r="C7" s="25" t="s">
+      <c r="A7" s="141"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
     </row>
     <row r="8" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A8" s="148"/>
-      <c r="B8" s="148"/>
-      <c r="C8" s="25" t="s">
+      <c r="A8" s="141"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="149"/>
-      <c r="E8" s="149"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
     </row>
     <row r="9" spans="1:5" ht="16.5">
-      <c r="A9" s="148"/>
-      <c r="B9" s="148" t="s">
+      <c r="A9" s="141"/>
+      <c r="B9" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="149"/>
-      <c r="E9" s="149"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
     </row>
     <row r="10" spans="1:5" ht="16.5">
-      <c r="A10" s="148"/>
-      <c r="B10" s="148"/>
-      <c r="C10" s="25" t="s">
+      <c r="A10" s="141"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="149"/>
-      <c r="E10" s="149"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="140"/>
     </row>
     <row r="11" spans="1:5" ht="16.5">
-      <c r="A11" s="148"/>
-      <c r="B11" s="148"/>
-      <c r="C11" s="25" t="s">
+      <c r="A11" s="141"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="149"/>
-      <c r="E11" s="149"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
     </row>
     <row r="12" spans="1:5" ht="16.5">
-      <c r="A12" s="148"/>
-      <c r="B12" s="148"/>
-      <c r="C12" s="25" t="s">
+      <c r="A12" s="141"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="149"/>
-      <c r="E12" s="149"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
     </row>
     <row r="13" spans="1:5" ht="16.5">
-      <c r="A13" s="148"/>
-      <c r="B13" s="148"/>
-      <c r="C13" s="25" t="s">
+      <c r="A13" s="141"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="149"/>
-      <c r="E13" s="149"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
     </row>
     <row r="14" spans="1:5" ht="16.5">
-      <c r="A14" s="148"/>
-      <c r="B14" s="148"/>
-      <c r="C14" s="25" t="s">
+      <c r="A14" s="141"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="149"/>
-      <c r="E14" s="149"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="140"/>
     </row>
     <row r="15" spans="1:5" ht="16.5">
-      <c r="A15" s="148"/>
-      <c r="B15" s="148"/>
-      <c r="C15" s="25" t="s">
+      <c r="A15" s="141"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="149"/>
-      <c r="E15" s="149"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
     </row>
     <row r="16" spans="1:5" ht="16.5">
-      <c r="A16" s="148"/>
-      <c r="B16" s="148" t="s">
+      <c r="A16" s="141"/>
+      <c r="B16" s="141" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="149"/>
-      <c r="E16" s="149"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
     </row>
     <row r="17" spans="1:5" ht="16.5">
-      <c r="A17" s="148"/>
-      <c r="B17" s="148"/>
-      <c r="C17" s="25" t="s">
+      <c r="A17" s="141"/>
+      <c r="B17" s="141"/>
+      <c r="C17" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="149"/>
-      <c r="E17" s="149"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
     </row>
     <row r="18" spans="1:5" ht="16.5">
-      <c r="A18" s="148"/>
-      <c r="B18" s="148"/>
-      <c r="C18" s="25" t="s">
+      <c r="A18" s="141"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="D18" s="149"/>
-      <c r="E18" s="149"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
     </row>
     <row r="19" spans="1:5" ht="16.5">
-      <c r="A19" s="148"/>
-      <c r="B19" s="148"/>
-      <c r="C19" s="25" t="s">
+      <c r="A19" s="141"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="149"/>
-      <c r="E19" s="149"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
     </row>
     <row r="20" spans="1:5" ht="16.5">
-      <c r="A20" s="148"/>
-      <c r="B20" s="148" t="s">
+      <c r="A20" s="141"/>
+      <c r="B20" s="141" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="D20" s="149"/>
-      <c r="E20" s="149"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="140"/>
     </row>
     <row r="21" spans="1:5" ht="16.5">
-      <c r="A21" s="148"/>
-      <c r="B21" s="148"/>
-      <c r="C21" s="25" t="s">
+      <c r="A21" s="141"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="149"/>
-      <c r="E21" s="149"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="140"/>
     </row>
     <row r="22" spans="1:5" ht="16.5">
-      <c r="A22" s="148"/>
-      <c r="B22" s="148"/>
-      <c r="C22" s="25" t="s">
+      <c r="A22" s="141"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="D22" s="149"/>
-      <c r="E22" s="149"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="140"/>
     </row>
     <row r="23" spans="1:5" ht="16.5">
-      <c r="A23" s="148"/>
-      <c r="B23" s="148"/>
-      <c r="C23" s="25" t="s">
+      <c r="A23" s="141"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D23" s="149"/>
-      <c r="E23" s="149"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="140"/>
     </row>
     <row r="24" spans="1:5" ht="16.5">
-      <c r="A24" s="148"/>
-      <c r="B24" s="148"/>
-      <c r="C24" s="25" t="s">
+      <c r="A24" s="141"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="149"/>
-      <c r="E24" s="149"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="140"/>
     </row>
     <row r="25" spans="1:5" ht="16.5">
-      <c r="A25" s="148"/>
-      <c r="B25" s="148"/>
-      <c r="C25" s="25" t="s">
+      <c r="A25" s="141"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="149"/>
-      <c r="E25" s="149"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="140"/>
     </row>
     <row r="26" spans="1:5" ht="16.5">
-      <c r="A26" s="148"/>
-      <c r="B26" s="148"/>
-      <c r="C26" s="25" t="s">
+      <c r="A26" s="141"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="D26" s="149"/>
-      <c r="E26" s="149"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="140"/>
     </row>
     <row r="27" spans="1:5" ht="16.5">
-      <c r="A27" s="148"/>
-      <c r="B27" s="148"/>
-      <c r="C27" s="25" t="s">
+      <c r="A27" s="141"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="149"/>
-      <c r="E27" s="149"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="140"/>
     </row>
     <row r="28" spans="1:5" ht="16.5">
-      <c r="A28" s="148"/>
-      <c r="B28" s="148" t="s">
+      <c r="A28" s="141"/>
+      <c r="B28" s="141" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="140"/>
     </row>
     <row r="29" spans="1:5" ht="16.5">
-      <c r="A29" s="148"/>
-      <c r="B29" s="148"/>
-      <c r="C29" s="25" t="s">
+      <c r="A29" s="141"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="D29" s="149"/>
-      <c r="E29" s="149"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="140"/>
     </row>
     <row r="30" spans="1:5" ht="16.5">
-      <c r="A30" s="148"/>
-      <c r="B30" s="148"/>
-      <c r="C30" s="25" t="s">
+      <c r="A30" s="141"/>
+      <c r="B30" s="141"/>
+      <c r="C30" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="149"/>
-      <c r="E30" s="149"/>
+      <c r="D30" s="140"/>
+      <c r="E30" s="140"/>
     </row>
     <row r="31" spans="1:5" ht="16.5">
-      <c r="A31" s="148"/>
-      <c r="B31" s="148"/>
-      <c r="C31" s="25" t="s">
+      <c r="A31" s="141"/>
+      <c r="B31" s="141"/>
+      <c r="C31" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="140"/>
     </row>
     <row r="32" spans="1:5" ht="16.5">
-      <c r="A32" s="148"/>
-      <c r="B32" s="148"/>
-      <c r="C32" s="25" t="s">
+      <c r="A32" s="141"/>
+      <c r="B32" s="141"/>
+      <c r="C32" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="140"/>
     </row>
     <row r="33" spans="1:5" ht="16.5">
-      <c r="A33" s="148" t="s">
+      <c r="A33" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="148" t="s">
+      <c r="B33" s="141" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="149"/>
-      <c r="E33" s="149"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="140"/>
     </row>
     <row r="34" spans="1:5" ht="16.5">
-      <c r="A34" s="148"/>
-      <c r="B34" s="148"/>
-      <c r="C34" s="25" t="s">
+      <c r="A34" s="141"/>
+      <c r="B34" s="141"/>
+      <c r="C34" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
+      <c r="D34" s="140"/>
+      <c r="E34" s="140"/>
     </row>
     <row r="35" spans="1:5" ht="16.5">
-      <c r="A35" s="148"/>
-      <c r="B35" s="148"/>
-      <c r="C35" s="25" t="s">
+      <c r="A35" s="141"/>
+      <c r="B35" s="141"/>
+      <c r="C35" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
+      <c r="D35" s="140"/>
+      <c r="E35" s="140"/>
     </row>
     <row r="36" spans="1:5" ht="16.5">
-      <c r="A36" s="148"/>
-      <c r="B36" s="148"/>
-      <c r="C36" s="25" t="s">
+      <c r="A36" s="141"/>
+      <c r="B36" s="141"/>
+      <c r="C36" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
+      <c r="D36" s="140"/>
+      <c r="E36" s="140"/>
     </row>
     <row r="37" spans="1:5" ht="16.5">
-      <c r="A37" s="148"/>
-      <c r="B37" s="148"/>
-      <c r="C37" s="25" t="s">
+      <c r="A37" s="141"/>
+      <c r="B37" s="141"/>
+      <c r="C37" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
+      <c r="D37" s="140"/>
+      <c r="E37" s="140"/>
     </row>
     <row r="38" spans="1:5" ht="16.5">
-      <c r="A38" s="148"/>
-      <c r="B38" s="148" t="s">
+      <c r="A38" s="141"/>
+      <c r="B38" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
+      <c r="D38" s="140"/>
+      <c r="E38" s="140"/>
     </row>
     <row r="39" spans="1:5" ht="16.5">
-      <c r="A39" s="148"/>
-      <c r="B39" s="148"/>
-      <c r="C39" s="25" t="s">
+      <c r="A39" s="141"/>
+      <c r="B39" s="141"/>
+      <c r="C39" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
+      <c r="D39" s="140"/>
+      <c r="E39" s="140"/>
     </row>
     <row r="40" spans="1:5" ht="16.5">
-      <c r="A40" s="148"/>
-      <c r="B40" s="148"/>
-      <c r="C40" s="25" t="s">
+      <c r="A40" s="141"/>
+      <c r="B40" s="141"/>
+      <c r="C40" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
+      <c r="D40" s="140"/>
+      <c r="E40" s="140"/>
     </row>
     <row r="41" spans="1:5" ht="16.5">
-      <c r="A41" s="148"/>
-      <c r="B41" s="148"/>
-      <c r="C41" s="25" t="s">
+      <c r="A41" s="141"/>
+      <c r="B41" s="141"/>
+      <c r="C41" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
+      <c r="D41" s="140"/>
+      <c r="E41" s="140"/>
     </row>
     <row r="42" spans="1:5" ht="16.5">
-      <c r="A42" s="148"/>
-      <c r="B42" s="148"/>
-      <c r="C42" s="25" t="s">
+      <c r="A42" s="141"/>
+      <c r="B42" s="141"/>
+      <c r="C42" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
+      <c r="D42" s="140"/>
+      <c r="E42" s="140"/>
     </row>
     <row r="43" spans="1:5" ht="16.5">
-      <c r="A43" s="148"/>
-      <c r="B43" s="148"/>
-      <c r="C43" s="25" t="s">
+      <c r="A43" s="141"/>
+      <c r="B43" s="141"/>
+      <c r="C43" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
+      <c r="D43" s="140"/>
+      <c r="E43" s="140"/>
     </row>
     <row r="44" spans="1:5" ht="16.5">
-      <c r="A44" s="148"/>
-      <c r="B44" s="148"/>
-      <c r="C44" s="25" t="s">
+      <c r="A44" s="141"/>
+      <c r="B44" s="141"/>
+      <c r="C44" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D44" s="149"/>
-      <c r="E44" s="149"/>
+      <c r="D44" s="140"/>
+      <c r="E44" s="140"/>
     </row>
     <row r="45" spans="1:5" ht="16.5">
-      <c r="A45" s="148"/>
-      <c r="B45" s="148" t="s">
+      <c r="A45" s="141"/>
+      <c r="B45" s="141" t="s">
         <v>125</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="149"/>
-      <c r="E45" s="149"/>
+      <c r="D45" s="140"/>
+      <c r="E45" s="140"/>
     </row>
     <row r="46" spans="1:5" ht="16.5">
-      <c r="A46" s="148"/>
-      <c r="B46" s="148"/>
-      <c r="C46" s="25" t="s">
+      <c r="A46" s="141"/>
+      <c r="B46" s="141"/>
+      <c r="C46" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D46" s="149"/>
-      <c r="E46" s="149"/>
+      <c r="D46" s="140"/>
+      <c r="E46" s="140"/>
     </row>
     <row r="47" spans="1:5" ht="16.5">
-      <c r="A47" s="148"/>
-      <c r="B47" s="148"/>
-      <c r="C47" s="25" t="s">
+      <c r="A47" s="141"/>
+      <c r="B47" s="141"/>
+      <c r="C47" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="D47" s="149"/>
-      <c r="E47" s="149"/>
+      <c r="D47" s="140"/>
+      <c r="E47" s="140"/>
     </row>
     <row r="48" spans="1:5" ht="16.5">
-      <c r="A48" s="148"/>
-      <c r="B48" s="148"/>
-      <c r="C48" s="25" t="s">
+      <c r="A48" s="141"/>
+      <c r="B48" s="141"/>
+      <c r="C48" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="D48" s="149"/>
-      <c r="E48" s="149"/>
+      <c r="D48" s="140"/>
+      <c r="E48" s="140"/>
     </row>
     <row r="49" spans="1:5" ht="16.5">
-      <c r="A49" s="148"/>
-      <c r="B49" s="148"/>
-      <c r="C49" s="25" t="s">
+      <c r="A49" s="141"/>
+      <c r="B49" s="141"/>
+      <c r="C49" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="D49" s="149"/>
-      <c r="E49" s="149"/>
+      <c r="D49" s="140"/>
+      <c r="E49" s="140"/>
     </row>
     <row r="50" spans="1:5" ht="16.5">
-      <c r="A50" s="148"/>
-      <c r="B50" s="148"/>
-      <c r="C50" s="25" t="s">
+      <c r="A50" s="141"/>
+      <c r="B50" s="141"/>
+      <c r="C50" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="D50" s="149"/>
-      <c r="E50" s="149"/>
+      <c r="D50" s="140"/>
+      <c r="E50" s="140"/>
     </row>
     <row r="51" spans="1:5" ht="16.5">
-      <c r="A51" s="148"/>
-      <c r="B51" s="148" t="s">
+      <c r="A51" s="141"/>
+      <c r="B51" s="141" t="s">
         <v>132</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="149"/>
-      <c r="E51" s="149"/>
+      <c r="D51" s="140"/>
+      <c r="E51" s="140"/>
     </row>
     <row r="52" spans="1:5" ht="16.5">
-      <c r="A52" s="148"/>
-      <c r="B52" s="148"/>
-      <c r="C52" s="25" t="s">
+      <c r="A52" s="141"/>
+      <c r="B52" s="141"/>
+      <c r="C52" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="D52" s="149"/>
-      <c r="E52" s="149"/>
+      <c r="D52" s="140"/>
+      <c r="E52" s="140"/>
     </row>
     <row r="53" spans="1:5" ht="16.5">
-      <c r="A53" s="148"/>
-      <c r="B53" s="148"/>
-      <c r="C53" s="25" t="s">
+      <c r="A53" s="141"/>
+      <c r="B53" s="141"/>
+      <c r="C53" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D53" s="149"/>
-      <c r="E53" s="149"/>
+      <c r="D53" s="140"/>
+      <c r="E53" s="140"/>
     </row>
     <row r="54" spans="1:5" ht="16.5">
-      <c r="A54" s="148"/>
-      <c r="B54" s="148"/>
-      <c r="C54" s="25" t="s">
+      <c r="A54" s="141"/>
+      <c r="B54" s="141"/>
+      <c r="C54" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="D54" s="149"/>
-      <c r="E54" s="149"/>
+      <c r="D54" s="140"/>
+      <c r="E54" s="140"/>
     </row>
     <row r="55" spans="1:5" ht="16.5">
-      <c r="A55" s="148"/>
-      <c r="B55" s="148"/>
-      <c r="C55" s="25" t="s">
+      <c r="A55" s="141"/>
+      <c r="B55" s="141"/>
+      <c r="C55" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="D55" s="149"/>
-      <c r="E55" s="149"/>
+      <c r="D55" s="140"/>
+      <c r="E55" s="140"/>
     </row>
     <row r="56" spans="1:5" ht="16.5">
-      <c r="A56" s="148" t="s">
+      <c r="A56" s="141" t="s">
         <v>133</v>
       </c>
-      <c r="B56" s="148" t="s">
+      <c r="B56" s="141" t="s">
         <v>95</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C56" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D56" s="149"/>
-      <c r="E56" s="149"/>
+      <c r="D56" s="140"/>
+      <c r="E56" s="140"/>
     </row>
     <row r="57" spans="1:5" ht="16.5">
-      <c r="A57" s="148"/>
-      <c r="B57" s="148"/>
-      <c r="C57" s="25" t="s">
+      <c r="A57" s="141"/>
+      <c r="B57" s="141"/>
+      <c r="C57" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D57" s="149"/>
-      <c r="E57" s="149"/>
+      <c r="D57" s="140"/>
+      <c r="E57" s="140"/>
     </row>
     <row r="58" spans="1:5" ht="16.5">
-      <c r="A58" s="148"/>
-      <c r="B58" s="148"/>
-      <c r="C58" s="25" t="s">
+      <c r="A58" s="141"/>
+      <c r="B58" s="141"/>
+      <c r="C58" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D58" s="149"/>
-      <c r="E58" s="149"/>
+      <c r="D58" s="140"/>
+      <c r="E58" s="140"/>
     </row>
     <row r="59" spans="1:5" ht="16.5">
-      <c r="A59" s="148"/>
-      <c r="B59" s="148"/>
-      <c r="C59" s="25" t="s">
+      <c r="A59" s="141"/>
+      <c r="B59" s="141"/>
+      <c r="C59" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D59" s="149"/>
-      <c r="E59" s="149"/>
+      <c r="D59" s="140"/>
+      <c r="E59" s="140"/>
     </row>
     <row r="60" spans="1:5" ht="16.5">
-      <c r="A60" s="148"/>
-      <c r="B60" s="148"/>
-      <c r="C60" s="25" t="s">
+      <c r="A60" s="141"/>
+      <c r="B60" s="141"/>
+      <c r="C60" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D60" s="149"/>
-      <c r="E60" s="149"/>
+      <c r="D60" s="140"/>
+      <c r="E60" s="140"/>
     </row>
     <row r="61" spans="1:5" ht="16.5">
-      <c r="A61" s="148"/>
-      <c r="B61" s="148" t="s">
+      <c r="A61" s="141"/>
+      <c r="B61" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C61" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D61" s="149"/>
-      <c r="E61" s="149"/>
+      <c r="D61" s="140"/>
+      <c r="E61" s="140"/>
     </row>
     <row r="62" spans="1:5" ht="16.5">
-      <c r="A62" s="148"/>
-      <c r="B62" s="148"/>
-      <c r="C62" s="25" t="s">
+      <c r="A62" s="141"/>
+      <c r="B62" s="141"/>
+      <c r="C62" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D62" s="149"/>
-      <c r="E62" s="149"/>
+      <c r="D62" s="140"/>
+      <c r="E62" s="140"/>
     </row>
     <row r="63" spans="1:5" ht="16.5">
-      <c r="A63" s="148"/>
-      <c r="B63" s="148"/>
-      <c r="C63" s="25" t="s">
+      <c r="A63" s="141"/>
+      <c r="B63" s="141"/>
+      <c r="C63" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D63" s="149"/>
-      <c r="E63" s="149"/>
+      <c r="D63" s="140"/>
+      <c r="E63" s="140"/>
     </row>
     <row r="64" spans="1:5" ht="16.5">
-      <c r="A64" s="148"/>
-      <c r="B64" s="148"/>
-      <c r="C64" s="25" t="s">
+      <c r="A64" s="141"/>
+      <c r="B64" s="141"/>
+      <c r="C64" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D64" s="149"/>
-      <c r="E64" s="149"/>
+      <c r="D64" s="140"/>
+      <c r="E64" s="140"/>
     </row>
     <row r="65" spans="1:5" ht="16.5">
-      <c r="A65" s="148"/>
-      <c r="B65" s="148"/>
-      <c r="C65" s="25" t="s">
+      <c r="A65" s="141"/>
+      <c r="B65" s="141"/>
+      <c r="C65" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D65" s="149"/>
-      <c r="E65" s="149"/>
+      <c r="D65" s="140"/>
+      <c r="E65" s="140"/>
     </row>
     <row r="66" spans="1:5" ht="16.5">
-      <c r="A66" s="148"/>
-      <c r="B66" s="148"/>
-      <c r="C66" s="25" t="s">
+      <c r="A66" s="141"/>
+      <c r="B66" s="141"/>
+      <c r="C66" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D66" s="149"/>
-      <c r="E66" s="149"/>
+      <c r="D66" s="140"/>
+      <c r="E66" s="140"/>
     </row>
     <row r="67" spans="1:5" ht="16.5">
-      <c r="A67" s="148"/>
-      <c r="B67" s="148"/>
-      <c r="C67" s="25" t="s">
+      <c r="A67" s="141"/>
+      <c r="B67" s="141"/>
+      <c r="C67" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D67" s="149"/>
-      <c r="E67" s="149"/>
+      <c r="D67" s="140"/>
+      <c r="E67" s="140"/>
     </row>
     <row r="68" spans="1:5" ht="16.5">
-      <c r="A68" s="148"/>
-      <c r="B68" s="148" t="s">
+      <c r="A68" s="141"/>
+      <c r="B68" s="141" t="s">
         <v>125</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C68" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D68" s="149"/>
-      <c r="E68" s="149"/>
+      <c r="D68" s="140"/>
+      <c r="E68" s="140"/>
     </row>
     <row r="69" spans="1:5" ht="16.5">
-      <c r="A69" s="148"/>
-      <c r="B69" s="148"/>
-      <c r="C69" s="25" t="s">
+      <c r="A69" s="141"/>
+      <c r="B69" s="141"/>
+      <c r="C69" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D69" s="149"/>
-      <c r="E69" s="149"/>
+      <c r="D69" s="140"/>
+      <c r="E69" s="140"/>
     </row>
     <row r="70" spans="1:5" ht="16.5">
-      <c r="A70" s="148"/>
-      <c r="B70" s="148"/>
-      <c r="C70" s="25" t="s">
+      <c r="A70" s="141"/>
+      <c r="B70" s="141"/>
+      <c r="C70" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="D70" s="149"/>
-      <c r="E70" s="149"/>
+      <c r="D70" s="140"/>
+      <c r="E70" s="140"/>
     </row>
     <row r="71" spans="1:5" ht="16.5">
-      <c r="A71" s="148"/>
-      <c r="B71" s="148"/>
-      <c r="C71" s="25" t="s">
+      <c r="A71" s="141"/>
+      <c r="B71" s="141"/>
+      <c r="C71" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="D71" s="149"/>
-      <c r="E71" s="149"/>
+      <c r="D71" s="140"/>
+      <c r="E71" s="140"/>
     </row>
     <row r="72" spans="1:5" ht="16.5">
-      <c r="A72" s="148"/>
-      <c r="B72" s="148"/>
-      <c r="C72" s="25" t="s">
+      <c r="A72" s="141"/>
+      <c r="B72" s="141"/>
+      <c r="C72" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D72" s="149"/>
-      <c r="E72" s="149"/>
+      <c r="D72" s="140"/>
+      <c r="E72" s="140"/>
     </row>
     <row r="73" spans="1:5" ht="16.5">
-      <c r="A73" s="148"/>
-      <c r="B73" s="148" t="s">
+      <c r="A73" s="141"/>
+      <c r="B73" s="141" t="s">
         <v>132</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="C73" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="149"/>
-      <c r="E73" s="149"/>
+      <c r="D73" s="140"/>
+      <c r="E73" s="140"/>
     </row>
     <row r="74" spans="1:5" ht="16.5">
-      <c r="A74" s="148"/>
-      <c r="B74" s="148"/>
-      <c r="C74" s="25" t="s">
+      <c r="A74" s="141"/>
+      <c r="B74" s="141"/>
+      <c r="C74" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="D74" s="149"/>
-      <c r="E74" s="149"/>
+      <c r="D74" s="140"/>
+      <c r="E74" s="140"/>
     </row>
     <row r="75" spans="1:5" ht="16.5">
-      <c r="A75" s="148"/>
-      <c r="B75" s="148"/>
-      <c r="C75" s="25" t="s">
+      <c r="A75" s="141"/>
+      <c r="B75" s="141"/>
+      <c r="C75" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D75" s="149"/>
-      <c r="E75" s="149"/>
+      <c r="D75" s="140"/>
+      <c r="E75" s="140"/>
     </row>
     <row r="76" spans="1:5" ht="16.5">
-      <c r="A76" s="148"/>
-      <c r="B76" s="148"/>
-      <c r="C76" s="25" t="s">
+      <c r="A76" s="141"/>
+      <c r="B76" s="141"/>
+      <c r="C76" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="D76" s="149"/>
-      <c r="E76" s="149"/>
+      <c r="D76" s="140"/>
+      <c r="E76" s="140"/>
     </row>
     <row r="77" spans="1:5" ht="16.5">
-      <c r="A77" s="148"/>
-      <c r="B77" s="148"/>
-      <c r="C77" s="25" t="s">
+      <c r="A77" s="141"/>
+      <c r="B77" s="141"/>
+      <c r="C77" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="D77" s="149"/>
-      <c r="E77" s="149"/>
+      <c r="D77" s="140"/>
+      <c r="E77" s="140"/>
     </row>
     <row r="78" spans="1:5" ht="16.5">
-      <c r="A78" s="148"/>
-      <c r="B78" s="148" t="s">
+      <c r="A78" s="141"/>
+      <c r="B78" s="141" t="s">
         <v>140</v>
       </c>
-      <c r="C78" s="25" t="s">
+      <c r="C78" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="D78" s="149"/>
-      <c r="E78" s="149"/>
+      <c r="D78" s="140"/>
+      <c r="E78" s="140"/>
     </row>
     <row r="79" spans="1:5" ht="16.5">
-      <c r="A79" s="148"/>
-      <c r="B79" s="148"/>
-      <c r="C79" s="25" t="s">
+      <c r="A79" s="141"/>
+      <c r="B79" s="141"/>
+      <c r="C79" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="D79" s="149"/>
-      <c r="E79" s="149"/>
+      <c r="D79" s="140"/>
+      <c r="E79" s="140"/>
     </row>
     <row r="80" spans="1:5" ht="16.5">
-      <c r="A80" s="148"/>
-      <c r="B80" s="148"/>
-      <c r="C80" s="25" t="s">
+      <c r="A80" s="141"/>
+      <c r="B80" s="141"/>
+      <c r="C80" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="D80" s="149"/>
-      <c r="E80" s="149"/>
+      <c r="D80" s="140"/>
+      <c r="E80" s="140"/>
     </row>
     <row r="81" spans="1:5" ht="16.5">
-      <c r="A81" s="148" t="s">
+      <c r="A81" s="141" t="s">
         <v>141</v>
       </c>
-      <c r="B81" s="148" t="s">
+      <c r="B81" s="141" t="s">
         <v>95</v>
       </c>
-      <c r="C81" s="25" t="s">
+      <c r="C81" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D81" s="149"/>
-      <c r="E81" s="149"/>
+      <c r="D81" s="140"/>
+      <c r="E81" s="140"/>
     </row>
     <row r="82" spans="1:5" ht="16.5">
-      <c r="A82" s="148"/>
-      <c r="B82" s="148"/>
-      <c r="C82" s="25" t="s">
+      <c r="A82" s="141"/>
+      <c r="B82" s="141"/>
+      <c r="C82" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D82" s="149"/>
-      <c r="E82" s="149"/>
+      <c r="D82" s="140"/>
+      <c r="E82" s="140"/>
     </row>
     <row r="83" spans="1:5" ht="16.5">
-      <c r="A83" s="148"/>
-      <c r="B83" s="148"/>
-      <c r="C83" s="25" t="s">
+      <c r="A83" s="141"/>
+      <c r="B83" s="141"/>
+      <c r="C83" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D83" s="149"/>
-      <c r="E83" s="149"/>
+      <c r="D83" s="140"/>
+      <c r="E83" s="140"/>
     </row>
     <row r="84" spans="1:5" ht="16.5">
-      <c r="A84" s="148"/>
-      <c r="B84" s="148"/>
-      <c r="C84" s="25" t="s">
+      <c r="A84" s="141"/>
+      <c r="B84" s="141"/>
+      <c r="C84" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D84" s="149"/>
-      <c r="E84" s="149"/>
+      <c r="D84" s="140"/>
+      <c r="E84" s="140"/>
     </row>
     <row r="85" spans="1:5" ht="16.5">
-      <c r="A85" s="148"/>
-      <c r="B85" s="148"/>
-      <c r="C85" s="25" t="s">
+      <c r="A85" s="141"/>
+      <c r="B85" s="141"/>
+      <c r="C85" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D85" s="149"/>
-      <c r="E85" s="149"/>
+      <c r="D85" s="140"/>
+      <c r="E85" s="140"/>
     </row>
     <row r="86" spans="1:5" ht="16.5">
-      <c r="A86" s="148"/>
-      <c r="B86" s="148" t="s">
+      <c r="A86" s="141"/>
+      <c r="B86" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="C86" s="25" t="s">
+      <c r="C86" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D86" s="149"/>
-      <c r="E86" s="149"/>
+      <c r="D86" s="140"/>
+      <c r="E86" s="140"/>
     </row>
     <row r="87" spans="1:5" ht="16.5">
-      <c r="A87" s="148"/>
-      <c r="B87" s="148"/>
-      <c r="C87" s="25" t="s">
+      <c r="A87" s="141"/>
+      <c r="B87" s="141"/>
+      <c r="C87" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D87" s="149"/>
-      <c r="E87" s="149"/>
+      <c r="D87" s="140"/>
+      <c r="E87" s="140"/>
     </row>
     <row r="88" spans="1:5" ht="16.5">
-      <c r="A88" s="148"/>
-      <c r="B88" s="148"/>
-      <c r="C88" s="25" t="s">
+      <c r="A88" s="141"/>
+      <c r="B88" s="141"/>
+      <c r="C88" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D88" s="149"/>
-      <c r="E88" s="149"/>
+      <c r="D88" s="140"/>
+      <c r="E88" s="140"/>
     </row>
     <row r="89" spans="1:5" ht="16.5">
-      <c r="A89" s="148"/>
-      <c r="B89" s="148"/>
-      <c r="C89" s="25" t="s">
+      <c r="A89" s="141"/>
+      <c r="B89" s="141"/>
+      <c r="C89" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D89" s="149"/>
-      <c r="E89" s="149"/>
+      <c r="D89" s="140"/>
+      <c r="E89" s="140"/>
     </row>
     <row r="90" spans="1:5" ht="16.5">
-      <c r="A90" s="148"/>
-      <c r="B90" s="148"/>
-      <c r="C90" s="25" t="s">
+      <c r="A90" s="141"/>
+      <c r="B90" s="141"/>
+      <c r="C90" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D90" s="149"/>
-      <c r="E90" s="149"/>
+      <c r="D90" s="140"/>
+      <c r="E90" s="140"/>
     </row>
     <row r="91" spans="1:5" ht="16.5">
-      <c r="A91" s="148"/>
-      <c r="B91" s="148"/>
-      <c r="C91" s="25" t="s">
+      <c r="A91" s="141"/>
+      <c r="B91" s="141"/>
+      <c r="C91" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D91" s="149"/>
-      <c r="E91" s="149"/>
+      <c r="D91" s="140"/>
+      <c r="E91" s="140"/>
     </row>
     <row r="92" spans="1:5" ht="16.5">
-      <c r="A92" s="148"/>
-      <c r="B92" s="148"/>
-      <c r="C92" s="25" t="s">
+      <c r="A92" s="141"/>
+      <c r="B92" s="141"/>
+      <c r="C92" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D92" s="149"/>
-      <c r="E92" s="149"/>
+      <c r="D92" s="140"/>
+      <c r="E92" s="140"/>
     </row>
     <row r="93" spans="1:5" ht="16.5">
-      <c r="A93" s="148"/>
-      <c r="B93" s="148" t="s">
+      <c r="A93" s="141"/>
+      <c r="B93" s="141" t="s">
         <v>125</v>
       </c>
-      <c r="C93" s="25" t="s">
+      <c r="C93" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D93" s="149"/>
-      <c r="E93" s="149"/>
+      <c r="D93" s="140"/>
+      <c r="E93" s="140"/>
     </row>
     <row r="94" spans="1:5" ht="16.5">
-      <c r="A94" s="148"/>
-      <c r="B94" s="148"/>
-      <c r="C94" s="25" t="s">
+      <c r="A94" s="141"/>
+      <c r="B94" s="141"/>
+      <c r="C94" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D94" s="149"/>
-      <c r="E94" s="149"/>
+      <c r="D94" s="140"/>
+      <c r="E94" s="140"/>
     </row>
     <row r="95" spans="1:5" ht="16.5">
-      <c r="A95" s="148"/>
-      <c r="B95" s="148"/>
-      <c r="C95" s="25" t="s">
+      <c r="A95" s="141"/>
+      <c r="B95" s="141"/>
+      <c r="C95" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="D95" s="149"/>
-      <c r="E95" s="149"/>
+      <c r="D95" s="140"/>
+      <c r="E95" s="140"/>
     </row>
     <row r="96" spans="1:5" ht="16.5">
-      <c r="A96" s="148"/>
-      <c r="B96" s="148"/>
-      <c r="C96" s="25" t="s">
+      <c r="A96" s="141"/>
+      <c r="B96" s="141"/>
+      <c r="C96" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="D96" s="149"/>
-      <c r="E96" s="149"/>
+      <c r="D96" s="140"/>
+      <c r="E96" s="140"/>
     </row>
     <row r="97" spans="1:5" ht="16.5">
-      <c r="A97" s="148"/>
-      <c r="B97" s="148"/>
-      <c r="C97" s="25" t="s">
+      <c r="A97" s="141"/>
+      <c r="B97" s="141"/>
+      <c r="C97" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D97" s="149"/>
-      <c r="E97" s="149"/>
+      <c r="D97" s="140"/>
+      <c r="E97" s="140"/>
     </row>
     <row r="98" spans="1:5" ht="16.5">
-      <c r="A98" s="148"/>
-      <c r="B98" s="148" t="s">
+      <c r="A98" s="141"/>
+      <c r="B98" s="141" t="s">
         <v>132</v>
       </c>
-      <c r="C98" s="25" t="s">
+      <c r="C98" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D98" s="149"/>
-      <c r="E98" s="149"/>
+      <c r="D98" s="140"/>
+      <c r="E98" s="140"/>
     </row>
     <row r="99" spans="1:5" ht="16.5">
-      <c r="A99" s="148"/>
-      <c r="B99" s="148"/>
-      <c r="C99" s="25" t="s">
+      <c r="A99" s="141"/>
+      <c r="B99" s="141"/>
+      <c r="C99" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="D99" s="149"/>
-      <c r="E99" s="149"/>
+      <c r="D99" s="140"/>
+      <c r="E99" s="140"/>
     </row>
     <row r="100" spans="1:5" ht="16.5">
-      <c r="A100" s="148"/>
-      <c r="B100" s="148"/>
-      <c r="C100" s="25" t="s">
+      <c r="A100" s="141"/>
+      <c r="B100" s="141"/>
+      <c r="C100" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D100" s="149"/>
-      <c r="E100" s="149"/>
+      <c r="D100" s="140"/>
+      <c r="E100" s="140"/>
     </row>
     <row r="101" spans="1:5" ht="16.5">
-      <c r="A101" s="148"/>
-      <c r="B101" s="148"/>
-      <c r="C101" s="25" t="s">
+      <c r="A101" s="141"/>
+      <c r="B101" s="141"/>
+      <c r="C101" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="D101" s="149"/>
-      <c r="E101" s="149"/>
+      <c r="D101" s="140"/>
+      <c r="E101" s="140"/>
     </row>
     <row r="102" spans="1:5" ht="16.5">
-      <c r="A102" s="148"/>
-      <c r="B102" s="148"/>
-      <c r="C102" s="25" t="s">
+      <c r="A102" s="141"/>
+      <c r="B102" s="141"/>
+      <c r="C102" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="D102" s="149"/>
-      <c r="E102" s="149"/>
+      <c r="D102" s="140"/>
+      <c r="E102" s="140"/>
     </row>
     <row r="103" spans="1:5" ht="16.5">
-      <c r="A103" s="148"/>
-      <c r="B103" s="148" t="s">
+      <c r="A103" s="141"/>
+      <c r="B103" s="141" t="s">
         <v>140</v>
       </c>
-      <c r="C103" s="25" t="s">
+      <c r="C103" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="D103" s="149"/>
-      <c r="E103" s="149"/>
+      <c r="D103" s="140"/>
+      <c r="E103" s="140"/>
     </row>
     <row r="104" spans="1:5" ht="16.5">
-      <c r="A104" s="148"/>
-      <c r="B104" s="148"/>
-      <c r="C104" s="25" t="s">
+      <c r="A104" s="141"/>
+      <c r="B104" s="141"/>
+      <c r="C104" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="D104" s="149"/>
-      <c r="E104" s="149"/>
+      <c r="D104" s="140"/>
+      <c r="E104" s="140"/>
     </row>
     <row r="105" spans="1:5" ht="16.5">
-      <c r="A105" s="148"/>
-      <c r="B105" s="148"/>
-      <c r="C105" s="25" t="s">
+      <c r="A105" s="141"/>
+      <c r="B105" s="141"/>
+      <c r="C105" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="D105" s="149"/>
-      <c r="E105" s="149"/>
+      <c r="D105" s="140"/>
+      <c r="E105" s="140"/>
     </row>
     <row r="106" spans="1:5" ht="16.5">
-      <c r="A106" s="148" t="s">
+      <c r="A106" s="141" t="s">
         <v>142</v>
       </c>
-      <c r="B106" s="148" t="s">
+      <c r="B106" s="141" t="s">
         <v>95</v>
       </c>
-      <c r="C106" s="25" t="s">
+      <c r="C106" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D106" s="149"/>
-      <c r="E106" s="149"/>
+      <c r="D106" s="140"/>
+      <c r="E106" s="140"/>
     </row>
     <row r="107" spans="1:5" ht="16.5">
-      <c r="A107" s="148"/>
-      <c r="B107" s="148"/>
-      <c r="C107" s="25" t="s">
+      <c r="A107" s="141"/>
+      <c r="B107" s="141"/>
+      <c r="C107" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D107" s="149"/>
-      <c r="E107" s="149"/>
+      <c r="D107" s="140"/>
+      <c r="E107" s="140"/>
     </row>
     <row r="108" spans="1:5" ht="16.5">
-      <c r="A108" s="148"/>
-      <c r="B108" s="148"/>
-      <c r="C108" s="25" t="s">
+      <c r="A108" s="141"/>
+      <c r="B108" s="141"/>
+      <c r="C108" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D108" s="149"/>
-      <c r="E108" s="149"/>
+      <c r="D108" s="140"/>
+      <c r="E108" s="140"/>
     </row>
     <row r="109" spans="1:5" ht="16.5">
-      <c r="A109" s="148"/>
-      <c r="B109" s="148"/>
-      <c r="C109" s="25" t="s">
+      <c r="A109" s="141"/>
+      <c r="B109" s="141"/>
+      <c r="C109" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D109" s="149"/>
-      <c r="E109" s="149"/>
+      <c r="D109" s="140"/>
+      <c r="E109" s="140"/>
     </row>
     <row r="110" spans="1:5" ht="16.5">
-      <c r="A110" s="148"/>
-      <c r="B110" s="148"/>
-      <c r="C110" s="25" t="s">
+      <c r="A110" s="141"/>
+      <c r="B110" s="141"/>
+      <c r="C110" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D110" s="149"/>
-      <c r="E110" s="149"/>
+      <c r="D110" s="140"/>
+      <c r="E110" s="140"/>
     </row>
     <row r="111" spans="1:5" ht="16.5">
-      <c r="A111" s="148"/>
-      <c r="B111" s="148" t="s">
+      <c r="A111" s="141"/>
+      <c r="B111" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="C111" s="25" t="s">
+      <c r="C111" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D111" s="149"/>
-      <c r="E111" s="149"/>
+      <c r="D111" s="140"/>
+      <c r="E111" s="140"/>
     </row>
     <row r="112" spans="1:5" ht="16.5">
-      <c r="A112" s="148"/>
-      <c r="B112" s="148"/>
-      <c r="C112" s="25" t="s">
+      <c r="A112" s="141"/>
+      <c r="B112" s="141"/>
+      <c r="C112" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D112" s="149"/>
-      <c r="E112" s="149"/>
+      <c r="D112" s="140"/>
+      <c r="E112" s="140"/>
     </row>
     <row r="113" spans="1:5" ht="16.5">
-      <c r="A113" s="148"/>
-      <c r="B113" s="148"/>
-      <c r="C113" s="25" t="s">
+      <c r="A113" s="141"/>
+      <c r="B113" s="141"/>
+      <c r="C113" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D113" s="149"/>
-      <c r="E113" s="149"/>
+      <c r="D113" s="140"/>
+      <c r="E113" s="140"/>
     </row>
     <row r="114" spans="1:5" ht="16.5">
-      <c r="A114" s="148"/>
-      <c r="B114" s="148"/>
-      <c r="C114" s="25" t="s">
+      <c r="A114" s="141"/>
+      <c r="B114" s="141"/>
+      <c r="C114" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D114" s="149"/>
-      <c r="E114" s="149"/>
+      <c r="D114" s="140"/>
+      <c r="E114" s="140"/>
     </row>
     <row r="115" spans="1:5" ht="16.5">
-      <c r="A115" s="148"/>
-      <c r="B115" s="148"/>
-      <c r="C115" s="25" t="s">
+      <c r="A115" s="141"/>
+      <c r="B115" s="141"/>
+      <c r="C115" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D115" s="149"/>
-      <c r="E115" s="149"/>
+      <c r="D115" s="140"/>
+      <c r="E115" s="140"/>
     </row>
     <row r="116" spans="1:5" ht="16.5">
-      <c r="A116" s="148"/>
-      <c r="B116" s="148"/>
-      <c r="C116" s="25" t="s">
+      <c r="A116" s="141"/>
+      <c r="B116" s="141"/>
+      <c r="C116" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D116" s="149"/>
-      <c r="E116" s="149"/>
+      <c r="D116" s="140"/>
+      <c r="E116" s="140"/>
     </row>
     <row r="117" spans="1:5" ht="16.5">
-      <c r="A117" s="148"/>
-      <c r="B117" s="148"/>
-      <c r="C117" s="25" t="s">
+      <c r="A117" s="141"/>
+      <c r="B117" s="141"/>
+      <c r="C117" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D117" s="149"/>
-      <c r="E117" s="149"/>
+      <c r="D117" s="140"/>
+      <c r="E117" s="140"/>
     </row>
     <row r="118" spans="1:5" ht="16.5">
-      <c r="A118" s="148"/>
-      <c r="B118" s="148" t="s">
+      <c r="A118" s="141"/>
+      <c r="B118" s="141" t="s">
         <v>125</v>
       </c>
-      <c r="C118" s="25" t="s">
+      <c r="C118" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D118" s="149"/>
-      <c r="E118" s="149"/>
+      <c r="D118" s="140"/>
+      <c r="E118" s="140"/>
     </row>
     <row r="119" spans="1:5" ht="16.5">
-      <c r="A119" s="148"/>
-      <c r="B119" s="148"/>
-      <c r="C119" s="25" t="s">
+      <c r="A119" s="141"/>
+      <c r="B119" s="141"/>
+      <c r="C119" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D119" s="149"/>
-      <c r="E119" s="149"/>
+      <c r="D119" s="140"/>
+      <c r="E119" s="140"/>
     </row>
     <row r="120" spans="1:5" ht="16.5">
-      <c r="A120" s="148"/>
-      <c r="B120" s="148"/>
-      <c r="C120" s="25" t="s">
+      <c r="A120" s="141"/>
+      <c r="B120" s="141"/>
+      <c r="C120" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="D120" s="149"/>
-      <c r="E120" s="149"/>
+      <c r="D120" s="140"/>
+      <c r="E120" s="140"/>
     </row>
     <row r="121" spans="1:5" ht="16.5">
-      <c r="A121" s="148"/>
-      <c r="B121" s="148"/>
-      <c r="C121" s="25" t="s">
+      <c r="A121" s="141"/>
+      <c r="B121" s="141"/>
+      <c r="C121" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="D121" s="149"/>
-      <c r="E121" s="149"/>
+      <c r="D121" s="140"/>
+      <c r="E121" s="140"/>
     </row>
     <row r="122" spans="1:5" ht="16.5">
-      <c r="A122" s="148"/>
-      <c r="B122" s="148"/>
-      <c r="C122" s="25" t="s">
+      <c r="A122" s="141"/>
+      <c r="B122" s="141"/>
+      <c r="C122" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D122" s="149"/>
-      <c r="E122" s="149"/>
+      <c r="D122" s="140"/>
+      <c r="E122" s="140"/>
     </row>
     <row r="123" spans="1:5" ht="16.5">
-      <c r="A123" s="148"/>
-      <c r="B123" s="148" t="s">
+      <c r="A123" s="141"/>
+      <c r="B123" s="141" t="s">
         <v>132</v>
       </c>
-      <c r="C123" s="25" t="s">
+      <c r="C123" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D123" s="149"/>
-      <c r="E123" s="149"/>
+      <c r="D123" s="140"/>
+      <c r="E123" s="140"/>
     </row>
     <row r="124" spans="1:5" ht="16.5">
-      <c r="A124" s="148"/>
-      <c r="B124" s="148"/>
-      <c r="C124" s="25" t="s">
+      <c r="A124" s="141"/>
+      <c r="B124" s="141"/>
+      <c r="C124" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="D124" s="149"/>
-      <c r="E124" s="149"/>
+      <c r="D124" s="140"/>
+      <c r="E124" s="140"/>
     </row>
     <row r="125" spans="1:5" ht="16.5">
-      <c r="A125" s="148"/>
-      <c r="B125" s="148"/>
-      <c r="C125" s="25" t="s">
+      <c r="A125" s="141"/>
+      <c r="B125" s="141"/>
+      <c r="C125" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D125" s="149"/>
-      <c r="E125" s="149"/>
+      <c r="D125" s="140"/>
+      <c r="E125" s="140"/>
     </row>
     <row r="126" spans="1:5" ht="16.5">
-      <c r="A126" s="148"/>
-      <c r="B126" s="148"/>
-      <c r="C126" s="25" t="s">
+      <c r="A126" s="141"/>
+      <c r="B126" s="141"/>
+      <c r="C126" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="D126" s="149"/>
-      <c r="E126" s="149"/>
+      <c r="D126" s="140"/>
+      <c r="E126" s="140"/>
     </row>
     <row r="127" spans="1:5" ht="16.5">
-      <c r="A127" s="148"/>
-      <c r="B127" s="148"/>
-      <c r="C127" s="25" t="s">
+      <c r="A127" s="141"/>
+      <c r="B127" s="141"/>
+      <c r="C127" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="D127" s="149"/>
-      <c r="E127" s="149"/>
+      <c r="D127" s="140"/>
+      <c r="E127" s="140"/>
     </row>
     <row r="128" spans="1:5" ht="16.5">
-      <c r="A128" s="148"/>
-      <c r="B128" s="148" t="s">
+      <c r="A128" s="141"/>
+      <c r="B128" s="141" t="s">
         <v>140</v>
       </c>
-      <c r="C128" s="25" t="s">
+      <c r="C128" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="D128" s="149"/>
-      <c r="E128" s="149"/>
+      <c r="D128" s="140"/>
+      <c r="E128" s="140"/>
     </row>
     <row r="129" spans="1:5" ht="16.5">
-      <c r="A129" s="148"/>
-      <c r="B129" s="148"/>
-      <c r="C129" s="25" t="s">
+      <c r="A129" s="141"/>
+      <c r="B129" s="141"/>
+      <c r="C129" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="D129" s="149"/>
-      <c r="E129" s="149"/>
+      <c r="D129" s="140"/>
+      <c r="E129" s="140"/>
     </row>
     <row r="130" spans="1:5" ht="16.5">
-      <c r="A130" s="148"/>
-      <c r="B130" s="148"/>
-      <c r="C130" s="25" t="s">
+      <c r="A130" s="141"/>
+      <c r="B130" s="141"/>
+      <c r="C130" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="D130" s="149"/>
-      <c r="E130" s="149"/>
+      <c r="D130" s="140"/>
+      <c r="E130" s="140"/>
     </row>
     <row r="131" spans="1:5" ht="16.5">
-      <c r="A131" s="148" t="s">
+      <c r="A131" s="141" t="s">
         <v>143</v>
       </c>
-      <c r="B131" s="148" t="s">
+      <c r="B131" s="141" t="s">
         <v>95</v>
       </c>
-      <c r="C131" s="25" t="s">
+      <c r="C131" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D131" s="149"/>
-      <c r="E131" s="149"/>
+      <c r="D131" s="140"/>
+      <c r="E131" s="140"/>
     </row>
     <row r="132" spans="1:5" ht="16.5">
-      <c r="A132" s="148"/>
-      <c r="B132" s="148"/>
-      <c r="C132" s="25" t="s">
+      <c r="A132" s="141"/>
+      <c r="B132" s="141"/>
+      <c r="C132" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D132" s="149"/>
-      <c r="E132" s="149"/>
+      <c r="D132" s="140"/>
+      <c r="E132" s="140"/>
     </row>
     <row r="133" spans="1:5" ht="16.5">
-      <c r="A133" s="148"/>
-      <c r="B133" s="148"/>
-      <c r="C133" s="25" t="s">
+      <c r="A133" s="141"/>
+      <c r="B133" s="141"/>
+      <c r="C133" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D133" s="149"/>
-      <c r="E133" s="149"/>
+      <c r="D133" s="140"/>
+      <c r="E133" s="140"/>
     </row>
     <row r="134" spans="1:5" ht="16.5">
-      <c r="A134" s="148"/>
-      <c r="B134" s="148"/>
-      <c r="C134" s="25" t="s">
+      <c r="A134" s="141"/>
+      <c r="B134" s="141"/>
+      <c r="C134" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D134" s="149"/>
-      <c r="E134" s="149"/>
+      <c r="D134" s="140"/>
+      <c r="E134" s="140"/>
     </row>
     <row r="135" spans="1:5" ht="16.5">
-      <c r="A135" s="148"/>
-      <c r="B135" s="148"/>
-      <c r="C135" s="25" t="s">
+      <c r="A135" s="141"/>
+      <c r="B135" s="141"/>
+      <c r="C135" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D135" s="149"/>
-      <c r="E135" s="149"/>
+      <c r="D135" s="140"/>
+      <c r="E135" s="140"/>
     </row>
     <row r="136" spans="1:5" ht="16.5">
-      <c r="A136" s="148"/>
-      <c r="B136" s="148" t="s">
+      <c r="A136" s="141"/>
+      <c r="B136" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="C136" s="25" t="s">
+      <c r="C136" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D136" s="149"/>
-      <c r="E136" s="149"/>
+      <c r="D136" s="140"/>
+      <c r="E136" s="140"/>
     </row>
     <row r="137" spans="1:5" ht="16.5">
-      <c r="A137" s="148"/>
-      <c r="B137" s="148"/>
-      <c r="C137" s="25" t="s">
+      <c r="A137" s="141"/>
+      <c r="B137" s="141"/>
+      <c r="C137" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D137" s="149"/>
-      <c r="E137" s="149"/>
+      <c r="D137" s="140"/>
+      <c r="E137" s="140"/>
     </row>
     <row r="138" spans="1:5" ht="16.5">
-      <c r="A138" s="148"/>
-      <c r="B138" s="148"/>
-      <c r="C138" s="25" t="s">
+      <c r="A138" s="141"/>
+      <c r="B138" s="141"/>
+      <c r="C138" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D138" s="149"/>
-      <c r="E138" s="149"/>
+      <c r="D138" s="140"/>
+      <c r="E138" s="140"/>
     </row>
     <row r="139" spans="1:5" ht="16.5">
-      <c r="A139" s="148"/>
-      <c r="B139" s="148"/>
-      <c r="C139" s="25" t="s">
+      <c r="A139" s="141"/>
+      <c r="B139" s="141"/>
+      <c r="C139" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D139" s="149"/>
-      <c r="E139" s="149"/>
+      <c r="D139" s="140"/>
+      <c r="E139" s="140"/>
     </row>
     <row r="140" spans="1:5" ht="16.5">
-      <c r="A140" s="148"/>
-      <c r="B140" s="148"/>
-      <c r="C140" s="25" t="s">
+      <c r="A140" s="141"/>
+      <c r="B140" s="141"/>
+      <c r="C140" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D140" s="149"/>
-      <c r="E140" s="149"/>
+      <c r="D140" s="140"/>
+      <c r="E140" s="140"/>
     </row>
     <row r="141" spans="1:5" ht="16.5">
-      <c r="A141" s="148"/>
-      <c r="B141" s="148"/>
-      <c r="C141" s="25" t="s">
+      <c r="A141" s="141"/>
+      <c r="B141" s="141"/>
+      <c r="C141" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D141" s="149"/>
-      <c r="E141" s="149"/>
+      <c r="D141" s="140"/>
+      <c r="E141" s="140"/>
     </row>
     <row r="142" spans="1:5" ht="16.5">
-      <c r="A142" s="148"/>
-      <c r="B142" s="148"/>
-      <c r="C142" s="25" t="s">
+      <c r="A142" s="141"/>
+      <c r="B142" s="141"/>
+      <c r="C142" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D142" s="149"/>
-      <c r="E142" s="149"/>
+      <c r="D142" s="140"/>
+      <c r="E142" s="140"/>
     </row>
     <row r="143" spans="1:5" ht="16.5">
-      <c r="A143" s="148"/>
-      <c r="B143" s="148" t="s">
+      <c r="A143" s="141"/>
+      <c r="B143" s="141" t="s">
         <v>125</v>
       </c>
-      <c r="C143" s="25" t="s">
+      <c r="C143" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D143" s="149"/>
-      <c r="E143" s="149"/>
+      <c r="D143" s="140"/>
+      <c r="E143" s="140"/>
     </row>
     <row r="144" spans="1:5" ht="16.5">
-      <c r="A144" s="148"/>
-      <c r="B144" s="148"/>
-      <c r="C144" s="25" t="s">
+      <c r="A144" s="141"/>
+      <c r="B144" s="141"/>
+      <c r="C144" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D144" s="149"/>
-      <c r="E144" s="149"/>
+      <c r="D144" s="140"/>
+      <c r="E144" s="140"/>
     </row>
     <row r="145" spans="1:5" ht="16.5">
-      <c r="A145" s="148"/>
-      <c r="B145" s="148"/>
-      <c r="C145" s="25" t="s">
+      <c r="A145" s="141"/>
+      <c r="B145" s="141"/>
+      <c r="C145" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="D145" s="149"/>
-      <c r="E145" s="149"/>
+      <c r="D145" s="140"/>
+      <c r="E145" s="140"/>
     </row>
     <row r="146" spans="1:5" ht="16.5">
-      <c r="A146" s="148"/>
-      <c r="B146" s="148"/>
-      <c r="C146" s="25" t="s">
+      <c r="A146" s="141"/>
+      <c r="B146" s="141"/>
+      <c r="C146" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="D146" s="149"/>
-      <c r="E146" s="149"/>
+      <c r="D146" s="140"/>
+      <c r="E146" s="140"/>
     </row>
     <row r="147" spans="1:5" ht="16.5">
-      <c r="A147" s="148"/>
-      <c r="B147" s="148"/>
-      <c r="C147" s="25" t="s">
+      <c r="A147" s="141"/>
+      <c r="B147" s="141"/>
+      <c r="C147" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D147" s="149"/>
-      <c r="E147" s="149"/>
+      <c r="D147" s="140"/>
+      <c r="E147" s="140"/>
     </row>
     <row r="148" spans="1:5" ht="16.5">
-      <c r="A148" s="148"/>
-      <c r="B148" s="148" t="s">
+      <c r="A148" s="141"/>
+      <c r="B148" s="141" t="s">
         <v>132</v>
       </c>
-      <c r="C148" s="25" t="s">
+      <c r="C148" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D148" s="149"/>
-      <c r="E148" s="149"/>
+      <c r="D148" s="140"/>
+      <c r="E148" s="140"/>
     </row>
     <row r="149" spans="1:5" ht="16.5">
-      <c r="A149" s="148"/>
-      <c r="B149" s="148"/>
-      <c r="C149" s="25" t="s">
+      <c r="A149" s="141"/>
+      <c r="B149" s="141"/>
+      <c r="C149" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="D149" s="149"/>
-      <c r="E149" s="149"/>
+      <c r="D149" s="140"/>
+      <c r="E149" s="140"/>
     </row>
     <row r="150" spans="1:5" ht="16.5">
-      <c r="A150" s="148"/>
-      <c r="B150" s="148"/>
-      <c r="C150" s="25" t="s">
+      <c r="A150" s="141"/>
+      <c r="B150" s="141"/>
+      <c r="C150" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D150" s="149"/>
-      <c r="E150" s="149"/>
+      <c r="D150" s="140"/>
+      <c r="E150" s="140"/>
     </row>
     <row r="151" spans="1:5" ht="16.5">
-      <c r="A151" s="148"/>
-      <c r="B151" s="148"/>
-      <c r="C151" s="25" t="s">
+      <c r="A151" s="141"/>
+      <c r="B151" s="141"/>
+      <c r="C151" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="D151" s="149"/>
-      <c r="E151" s="149"/>
+      <c r="D151" s="140"/>
+      <c r="E151" s="140"/>
     </row>
     <row r="152" spans="1:5" ht="16.5">
-      <c r="A152" s="148"/>
-      <c r="B152" s="148"/>
-      <c r="C152" s="25" t="s">
+      <c r="A152" s="141"/>
+      <c r="B152" s="141"/>
+      <c r="C152" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="D152" s="149"/>
-      <c r="E152" s="149"/>
+      <c r="D152" s="140"/>
+      <c r="E152" s="140"/>
     </row>
     <row r="153" spans="1:5" ht="16.5">
-      <c r="A153" s="148"/>
-      <c r="B153" s="148" t="s">
+      <c r="A153" s="141"/>
+      <c r="B153" s="141" t="s">
         <v>140</v>
       </c>
-      <c r="C153" s="25" t="s">
+      <c r="C153" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="D153" s="149"/>
-      <c r="E153" s="149"/>
+      <c r="D153" s="140"/>
+      <c r="E153" s="140"/>
     </row>
     <row r="154" spans="1:5" ht="16.5">
-      <c r="A154" s="148"/>
-      <c r="B154" s="148"/>
-      <c r="C154" s="25" t="s">
+      <c r="A154" s="141"/>
+      <c r="B154" s="141"/>
+      <c r="C154" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="D154" s="149"/>
-      <c r="E154" s="149"/>
+      <c r="D154" s="140"/>
+      <c r="E154" s="140"/>
     </row>
     <row r="155" spans="1:5" ht="16.5">
-      <c r="A155" s="148"/>
-      <c r="B155" s="148"/>
-      <c r="C155" s="25" t="s">
+      <c r="A155" s="141"/>
+      <c r="B155" s="141"/>
+      <c r="C155" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="D155" s="149"/>
-      <c r="E155" s="149"/>
+      <c r="D155" s="140"/>
+      <c r="E155" s="140"/>
     </row>
     <row r="156" spans="1:5" ht="16.5">
-      <c r="A156" s="148" t="s">
+      <c r="A156" s="141" t="s">
         <v>148</v>
       </c>
-      <c r="B156" s="148" t="s">
+      <c r="B156" s="141" t="s">
         <v>95</v>
       </c>
-      <c r="C156" s="25" t="s">
+      <c r="C156" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D156" s="149"/>
-      <c r="E156" s="149"/>
+      <c r="D156" s="140"/>
+      <c r="E156" s="140"/>
     </row>
     <row r="157" spans="1:5" ht="16.5">
-      <c r="A157" s="148"/>
-      <c r="B157" s="148"/>
-      <c r="C157" s="25" t="s">
+      <c r="A157" s="141"/>
+      <c r="B157" s="141"/>
+      <c r="C157" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D157" s="149"/>
-      <c r="E157" s="149"/>
+      <c r="D157" s="140"/>
+      <c r="E157" s="140"/>
     </row>
     <row r="158" spans="1:5" ht="16.5">
-      <c r="A158" s="148"/>
-      <c r="B158" s="148"/>
-      <c r="C158" s="25" t="s">
+      <c r="A158" s="141"/>
+      <c r="B158" s="141"/>
+      <c r="C158" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D158" s="149"/>
-      <c r="E158" s="149"/>
+      <c r="D158" s="140"/>
+      <c r="E158" s="140"/>
     </row>
     <row r="159" spans="1:5" ht="16.5">
-      <c r="A159" s="148"/>
-      <c r="B159" s="148"/>
-      <c r="C159" s="25" t="s">
+      <c r="A159" s="141"/>
+      <c r="B159" s="141"/>
+      <c r="C159" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D159" s="149"/>
-      <c r="E159" s="149"/>
+      <c r="D159" s="140"/>
+      <c r="E159" s="140"/>
     </row>
     <row r="160" spans="1:5" ht="16.5">
-      <c r="A160" s="148"/>
-      <c r="B160" s="148"/>
-      <c r="C160" s="25" t="s">
+      <c r="A160" s="141"/>
+      <c r="B160" s="141"/>
+      <c r="C160" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D160" s="149"/>
-      <c r="E160" s="149"/>
+      <c r="D160" s="140"/>
+      <c r="E160" s="140"/>
     </row>
     <row r="161" spans="1:5" ht="16.5">
-      <c r="A161" s="148"/>
-      <c r="B161" s="148" t="s">
+      <c r="A161" s="141"/>
+      <c r="B161" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="C161" s="25" t="s">
+      <c r="C161" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D161" s="149"/>
-      <c r="E161" s="149"/>
+      <c r="D161" s="140"/>
+      <c r="E161" s="140"/>
     </row>
     <row r="162" spans="1:5" ht="16.5">
-      <c r="A162" s="148"/>
-      <c r="B162" s="148"/>
-      <c r="C162" s="25" t="s">
+      <c r="A162" s="141"/>
+      <c r="B162" s="141"/>
+      <c r="C162" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D162" s="149"/>
-      <c r="E162" s="149"/>
+      <c r="D162" s="140"/>
+      <c r="E162" s="140"/>
     </row>
     <row r="163" spans="1:5" ht="16.5">
-      <c r="A163" s="148"/>
-      <c r="B163" s="148"/>
-      <c r="C163" s="25" t="s">
+      <c r="A163" s="141"/>
+      <c r="B163" s="141"/>
+      <c r="C163" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D163" s="149"/>
-      <c r="E163" s="149"/>
+      <c r="D163" s="140"/>
+      <c r="E163" s="140"/>
     </row>
     <row r="164" spans="1:5" ht="16.5">
-      <c r="A164" s="148"/>
-      <c r="B164" s="148"/>
-      <c r="C164" s="25" t="s">
+      <c r="A164" s="141"/>
+      <c r="B164" s="141"/>
+      <c r="C164" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D164" s="149"/>
-      <c r="E164" s="149"/>
+      <c r="D164" s="140"/>
+      <c r="E164" s="140"/>
     </row>
     <row r="165" spans="1:5" ht="16.5">
-      <c r="A165" s="148"/>
-      <c r="B165" s="148"/>
-      <c r="C165" s="25" t="s">
+      <c r="A165" s="141"/>
+      <c r="B165" s="141"/>
+      <c r="C165" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D165" s="149"/>
-      <c r="E165" s="149"/>
+      <c r="D165" s="140"/>
+      <c r="E165" s="140"/>
     </row>
     <row r="166" spans="1:5" ht="16.5">
-      <c r="A166" s="148"/>
-      <c r="B166" s="148"/>
-      <c r="C166" s="25" t="s">
+      <c r="A166" s="141"/>
+      <c r="B166" s="141"/>
+      <c r="C166" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D166" s="149"/>
-      <c r="E166" s="149"/>
+      <c r="D166" s="140"/>
+      <c r="E166" s="140"/>
     </row>
     <row r="167" spans="1:5" ht="16.5">
-      <c r="A167" s="148"/>
-      <c r="B167" s="148"/>
-      <c r="C167" s="25" t="s">
+      <c r="A167" s="141"/>
+      <c r="B167" s="141"/>
+      <c r="C167" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D167" s="149"/>
-      <c r="E167" s="149"/>
+      <c r="D167" s="140"/>
+      <c r="E167" s="140"/>
     </row>
     <row r="168" spans="1:5" ht="16.5">
-      <c r="A168" s="148"/>
-      <c r="B168" s="148" t="s">
+      <c r="A168" s="141"/>
+      <c r="B168" s="141" t="s">
         <v>125</v>
       </c>
-      <c r="C168" s="25" t="s">
+      <c r="C168" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D168" s="149"/>
-      <c r="E168" s="149"/>
+      <c r="D168" s="140"/>
+      <c r="E168" s="140"/>
     </row>
     <row r="169" spans="1:5" ht="16.5">
-      <c r="A169" s="148"/>
-      <c r="B169" s="148"/>
-      <c r="C169" s="25" t="s">
+      <c r="A169" s="141"/>
+      <c r="B169" s="141"/>
+      <c r="C169" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D169" s="149"/>
-      <c r="E169" s="149"/>
+      <c r="D169" s="140"/>
+      <c r="E169" s="140"/>
     </row>
     <row r="170" spans="1:5" ht="16.5">
-      <c r="A170" s="148"/>
-      <c r="B170" s="148"/>
-      <c r="C170" s="25" t="s">
+      <c r="A170" s="141"/>
+      <c r="B170" s="141"/>
+      <c r="C170" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="D170" s="149"/>
-      <c r="E170" s="149"/>
+      <c r="D170" s="140"/>
+      <c r="E170" s="140"/>
     </row>
     <row r="171" spans="1:5" ht="16.5">
-      <c r="A171" s="148"/>
-      <c r="B171" s="148"/>
-      <c r="C171" s="25" t="s">
+      <c r="A171" s="141"/>
+      <c r="B171" s="141"/>
+      <c r="C171" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="D171" s="149"/>
-      <c r="E171" s="149"/>
+      <c r="D171" s="140"/>
+      <c r="E171" s="140"/>
     </row>
     <row r="172" spans="1:5" ht="16.5">
-      <c r="A172" s="148"/>
-      <c r="B172" s="148"/>
-      <c r="C172" s="25" t="s">
+      <c r="A172" s="141"/>
+      <c r="B172" s="141"/>
+      <c r="C172" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D172" s="149"/>
-      <c r="E172" s="149"/>
+      <c r="D172" s="140"/>
+      <c r="E172" s="140"/>
     </row>
     <row r="173" spans="1:5" ht="16.5">
-      <c r="A173" s="148"/>
-      <c r="B173" s="148" t="s">
+      <c r="A173" s="141"/>
+      <c r="B173" s="141" t="s">
         <v>145</v>
       </c>
-      <c r="C173" s="25" t="s">
+      <c r="C173" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D173" s="149"/>
-      <c r="E173" s="149"/>
+      <c r="D173" s="140"/>
+      <c r="E173" s="140"/>
     </row>
     <row r="174" spans="1:5" ht="16.5">
-      <c r="A174" s="148"/>
-      <c r="B174" s="148"/>
-      <c r="C174" s="25" t="s">
+      <c r="A174" s="141"/>
+      <c r="B174" s="141"/>
+      <c r="C174" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="D174" s="149"/>
-      <c r="E174" s="149"/>
+      <c r="D174" s="140"/>
+      <c r="E174" s="140"/>
     </row>
     <row r="175" spans="1:5" ht="16.5">
-      <c r="A175" s="148"/>
-      <c r="B175" s="148"/>
-      <c r="C175" s="25" t="s">
+      <c r="A175" s="141"/>
+      <c r="B175" s="141"/>
+      <c r="C175" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="D175" s="149"/>
-      <c r="E175" s="149"/>
+      <c r="D175" s="140"/>
+      <c r="E175" s="140"/>
     </row>
     <row r="176" spans="1:5" ht="16.5">
-      <c r="A176" s="148"/>
-      <c r="B176" s="148"/>
-      <c r="C176" s="25" t="s">
+      <c r="A176" s="141"/>
+      <c r="B176" s="141"/>
+      <c r="C176" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D176" s="149"/>
-      <c r="E176" s="149"/>
+      <c r="D176" s="140"/>
+      <c r="E176" s="140"/>
     </row>
     <row r="177" spans="1:5" ht="16.5">
-      <c r="A177" s="148"/>
-      <c r="B177" s="148" t="s">
+      <c r="A177" s="141"/>
+      <c r="B177" s="141" t="s">
         <v>120</v>
       </c>
-      <c r="C177" s="25" t="s">
+      <c r="C177" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D177" s="149"/>
-      <c r="E177" s="149"/>
+      <c r="D177" s="140"/>
+      <c r="E177" s="140"/>
     </row>
     <row r="178" spans="1:5" ht="16.5">
-      <c r="A178" s="148"/>
-      <c r="B178" s="148"/>
-      <c r="C178" s="25" t="s">
+      <c r="A178" s="141"/>
+      <c r="B178" s="141"/>
+      <c r="C178" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="D178" s="149"/>
-      <c r="E178" s="149"/>
+      <c r="D178" s="140"/>
+      <c r="E178" s="140"/>
     </row>
     <row r="179" spans="1:5" ht="16.5">
-      <c r="A179" s="148"/>
-      <c r="B179" s="148"/>
-      <c r="C179" s="25" t="s">
+      <c r="A179" s="141"/>
+      <c r="B179" s="141"/>
+      <c r="C179" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D179" s="149"/>
-      <c r="E179" s="149"/>
+      <c r="D179" s="140"/>
+      <c r="E179" s="140"/>
     </row>
     <row r="180" spans="1:5" ht="16.5">
-      <c r="A180" s="148"/>
-      <c r="B180" s="148"/>
-      <c r="C180" s="25" t="s">
+      <c r="A180" s="141"/>
+      <c r="B180" s="141"/>
+      <c r="C180" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="D180" s="149"/>
-      <c r="E180" s="149"/>
+      <c r="D180" s="140"/>
+      <c r="E180" s="140"/>
     </row>
     <row r="181" spans="1:5" ht="16.5">
-      <c r="A181" s="148"/>
-      <c r="B181" s="148"/>
-      <c r="C181" s="25" t="s">
+      <c r="A181" s="141"/>
+      <c r="B181" s="141"/>
+      <c r="C181" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D181" s="149"/>
-      <c r="E181" s="149"/>
+      <c r="D181" s="140"/>
+      <c r="E181" s="140"/>
     </row>
     <row r="182" spans="1:5" ht="16.5">
-      <c r="A182" s="148" t="s">
+      <c r="A182" s="141" t="s">
         <v>149</v>
       </c>
-      <c r="B182" s="148" t="s">
+      <c r="B182" s="141" t="s">
         <v>95</v>
       </c>
-      <c r="C182" s="25" t="s">
+      <c r="C182" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D182" s="149"/>
-      <c r="E182" s="149"/>
+      <c r="D182" s="140"/>
+      <c r="E182" s="140"/>
     </row>
     <row r="183" spans="1:5" ht="16.5">
-      <c r="A183" s="148"/>
-      <c r="B183" s="148"/>
-      <c r="C183" s="25" t="s">
+      <c r="A183" s="141"/>
+      <c r="B183" s="141"/>
+      <c r="C183" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D183" s="149"/>
-      <c r="E183" s="149"/>
+      <c r="D183" s="140"/>
+      <c r="E183" s="140"/>
     </row>
     <row r="184" spans="1:5" ht="16.5">
-      <c r="A184" s="148"/>
-      <c r="B184" s="148"/>
-      <c r="C184" s="25" t="s">
+      <c r="A184" s="141"/>
+      <c r="B184" s="141"/>
+      <c r="C184" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D184" s="149"/>
-      <c r="E184" s="149"/>
+      <c r="D184" s="140"/>
+      <c r="E184" s="140"/>
     </row>
     <row r="185" spans="1:5" ht="16.5">
-      <c r="A185" s="148"/>
-      <c r="B185" s="148"/>
-      <c r="C185" s="25" t="s">
+      <c r="A185" s="141"/>
+      <c r="B185" s="141"/>
+      <c r="C185" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D185" s="149"/>
-      <c r="E185" s="149"/>
+      <c r="D185" s="140"/>
+      <c r="E185" s="140"/>
     </row>
     <row r="186" spans="1:5" ht="16.5">
-      <c r="A186" s="148"/>
-      <c r="B186" s="148"/>
-      <c r="C186" s="25" t="s">
+      <c r="A186" s="141"/>
+      <c r="B186" s="141"/>
+      <c r="C186" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D186" s="149"/>
-      <c r="E186" s="149"/>
+      <c r="D186" s="140"/>
+      <c r="E186" s="140"/>
     </row>
     <row r="187" spans="1:5" ht="16.5">
-      <c r="A187" s="148"/>
-      <c r="B187" s="148" t="s">
+      <c r="A187" s="141"/>
+      <c r="B187" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="C187" s="25" t="s">
+      <c r="C187" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D187" s="149"/>
-      <c r="E187" s="149"/>
+      <c r="D187" s="140"/>
+      <c r="E187" s="140"/>
     </row>
     <row r="188" spans="1:5" ht="16.5">
-      <c r="A188" s="148"/>
-      <c r="B188" s="148"/>
-      <c r="C188" s="25" t="s">
+      <c r="A188" s="141"/>
+      <c r="B188" s="141"/>
+      <c r="C188" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D188" s="149"/>
-      <c r="E188" s="149"/>
+      <c r="D188" s="140"/>
+      <c r="E188" s="140"/>
     </row>
     <row r="189" spans="1:5" ht="16.5">
-      <c r="A189" s="148"/>
-      <c r="B189" s="148"/>
-      <c r="C189" s="25" t="s">
+      <c r="A189" s="141"/>
+      <c r="B189" s="141"/>
+      <c r="C189" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D189" s="149"/>
-      <c r="E189" s="149"/>
+      <c r="D189" s="140"/>
+      <c r="E189" s="140"/>
     </row>
     <row r="190" spans="1:5" ht="16.5">
-      <c r="A190" s="148"/>
-      <c r="B190" s="148"/>
-      <c r="C190" s="25" t="s">
+      <c r="A190" s="141"/>
+      <c r="B190" s="141"/>
+      <c r="C190" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D190" s="149"/>
-      <c r="E190" s="149"/>
+      <c r="D190" s="140"/>
+      <c r="E190" s="140"/>
     </row>
     <row r="191" spans="1:5" ht="16.5">
-      <c r="A191" s="148"/>
-      <c r="B191" s="148"/>
-      <c r="C191" s="25" t="s">
+      <c r="A191" s="141"/>
+      <c r="B191" s="141"/>
+      <c r="C191" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D191" s="149"/>
-      <c r="E191" s="149"/>
+      <c r="D191" s="140"/>
+      <c r="E191" s="140"/>
     </row>
     <row r="192" spans="1:5" ht="16.5">
-      <c r="A192" s="148"/>
-      <c r="B192" s="148"/>
-      <c r="C192" s="25" t="s">
+      <c r="A192" s="141"/>
+      <c r="B192" s="141"/>
+      <c r="C192" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D192" s="149"/>
-      <c r="E192" s="149"/>
+      <c r="D192" s="140"/>
+      <c r="E192" s="140"/>
     </row>
     <row r="193" spans="1:5" ht="16.5">
-      <c r="A193" s="148"/>
-      <c r="B193" s="148"/>
-      <c r="C193" s="25" t="s">
+      <c r="A193" s="141"/>
+      <c r="B193" s="141"/>
+      <c r="C193" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D193" s="149"/>
-      <c r="E193" s="149"/>
+      <c r="D193" s="140"/>
+      <c r="E193" s="140"/>
     </row>
     <row r="194" spans="1:5" ht="16.5">
-      <c r="A194" s="148"/>
-      <c r="B194" s="148" t="s">
+      <c r="A194" s="141"/>
+      <c r="B194" s="141" t="s">
         <v>125</v>
       </c>
-      <c r="C194" s="25" t="s">
+      <c r="C194" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D194" s="149"/>
-      <c r="E194" s="149"/>
+      <c r="D194" s="140"/>
+      <c r="E194" s="140"/>
     </row>
     <row r="195" spans="1:5" ht="16.5">
-      <c r="A195" s="148"/>
-      <c r="B195" s="148"/>
-      <c r="C195" s="25" t="s">
+      <c r="A195" s="141"/>
+      <c r="B195" s="141"/>
+      <c r="C195" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D195" s="149"/>
-      <c r="E195" s="149"/>
+      <c r="D195" s="140"/>
+      <c r="E195" s="140"/>
     </row>
     <row r="196" spans="1:5" ht="16.5">
-      <c r="A196" s="148"/>
-      <c r="B196" s="148"/>
-      <c r="C196" s="25" t="s">
+      <c r="A196" s="141"/>
+      <c r="B196" s="141"/>
+      <c r="C196" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="D196" s="149"/>
-      <c r="E196" s="149"/>
+      <c r="D196" s="140"/>
+      <c r="E196" s="140"/>
     </row>
     <row r="197" spans="1:5" ht="16.5">
-      <c r="A197" s="148"/>
-      <c r="B197" s="148"/>
-      <c r="C197" s="25" t="s">
+      <c r="A197" s="141"/>
+      <c r="B197" s="141"/>
+      <c r="C197" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="D197" s="149"/>
-      <c r="E197" s="149"/>
+      <c r="D197" s="140"/>
+      <c r="E197" s="140"/>
     </row>
     <row r="198" spans="1:5" ht="16.5">
-      <c r="A198" s="148"/>
-      <c r="B198" s="148"/>
-      <c r="C198" s="25" t="s">
+      <c r="A198" s="141"/>
+      <c r="B198" s="141"/>
+      <c r="C198" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D198" s="149"/>
-      <c r="E198" s="149"/>
+      <c r="D198" s="140"/>
+      <c r="E198" s="140"/>
     </row>
     <row r="199" spans="1:5" ht="16.5">
-      <c r="A199" s="148"/>
-      <c r="B199" s="148" t="s">
+      <c r="A199" s="141"/>
+      <c r="B199" s="141" t="s">
         <v>145</v>
       </c>
-      <c r="C199" s="25" t="s">
+      <c r="C199" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D199" s="149"/>
-      <c r="E199" s="149"/>
+      <c r="D199" s="140"/>
+      <c r="E199" s="140"/>
     </row>
     <row r="200" spans="1:5" ht="16.5">
-      <c r="A200" s="148"/>
-      <c r="B200" s="148"/>
-      <c r="C200" s="25" t="s">
+      <c r="A200" s="141"/>
+      <c r="B200" s="141"/>
+      <c r="C200" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="D200" s="149"/>
-      <c r="E200" s="149"/>
+      <c r="D200" s="140"/>
+      <c r="E200" s="140"/>
     </row>
     <row r="201" spans="1:5" ht="16.5">
-      <c r="A201" s="148"/>
-      <c r="B201" s="148"/>
-      <c r="C201" s="25" t="s">
+      <c r="A201" s="141"/>
+      <c r="B201" s="141"/>
+      <c r="C201" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="D201" s="149"/>
-      <c r="E201" s="149"/>
+      <c r="D201" s="140"/>
+      <c r="E201" s="140"/>
     </row>
     <row r="202" spans="1:5" ht="16.5">
-      <c r="A202" s="148"/>
-      <c r="B202" s="148"/>
-      <c r="C202" s="25" t="s">
+      <c r="A202" s="141"/>
+      <c r="B202" s="141"/>
+      <c r="C202" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D202" s="149"/>
-      <c r="E202" s="149"/>
+      <c r="D202" s="140"/>
+      <c r="E202" s="140"/>
     </row>
     <row r="203" spans="1:5" ht="16.5">
-      <c r="A203" s="148"/>
-      <c r="B203" s="148" t="s">
+      <c r="A203" s="141"/>
+      <c r="B203" s="141" t="s">
         <v>120</v>
       </c>
-      <c r="C203" s="25" t="s">
+      <c r="C203" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D203" s="149"/>
-      <c r="E203" s="149"/>
+      <c r="D203" s="140"/>
+      <c r="E203" s="140"/>
     </row>
     <row r="204" spans="1:5" ht="16.5">
-      <c r="A204" s="148"/>
-      <c r="B204" s="148"/>
-      <c r="C204" s="25" t="s">
+      <c r="A204" s="141"/>
+      <c r="B204" s="141"/>
+      <c r="C204" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="D204" s="149"/>
-      <c r="E204" s="149"/>
+      <c r="D204" s="140"/>
+      <c r="E204" s="140"/>
     </row>
     <row r="205" spans="1:5" ht="16.5">
-      <c r="A205" s="148"/>
-      <c r="B205" s="148"/>
-      <c r="C205" s="25" t="s">
+      <c r="A205" s="141"/>
+      <c r="B205" s="141"/>
+      <c r="C205" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D205" s="149"/>
-      <c r="E205" s="149"/>
+      <c r="D205" s="140"/>
+      <c r="E205" s="140"/>
     </row>
     <row r="206" spans="1:5" ht="16.5">
-      <c r="A206" s="148"/>
-      <c r="B206" s="148"/>
-      <c r="C206" s="25" t="s">
+      <c r="A206" s="141"/>
+      <c r="B206" s="141"/>
+      <c r="C206" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="D206" s="149"/>
-      <c r="E206" s="149"/>
+      <c r="D206" s="140"/>
+      <c r="E206" s="140"/>
     </row>
     <row r="207" spans="1:5" ht="16.5">
-      <c r="A207" s="148"/>
-      <c r="B207" s="148"/>
-      <c r="C207" s="25" t="s">
+      <c r="A207" s="141"/>
+      <c r="B207" s="141"/>
+      <c r="C207" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D207" s="149"/>
-      <c r="E207" s="149"/>
+      <c r="D207" s="140"/>
+      <c r="E207" s="140"/>
     </row>
     <row r="208" spans="1:5" ht="16.5">
-      <c r="A208" s="148" t="s">
+      <c r="A208" s="141" t="s">
         <v>150</v>
       </c>
-      <c r="B208" s="148" t="s">
+      <c r="B208" s="141" t="s">
         <v>95</v>
       </c>
-      <c r="C208" s="25" t="s">
+      <c r="C208" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D208" s="149"/>
-      <c r="E208" s="149"/>
+      <c r="D208" s="140"/>
+      <c r="E208" s="140"/>
     </row>
     <row r="209" spans="1:5" ht="16.5">
-      <c r="A209" s="148"/>
-      <c r="B209" s="148"/>
-      <c r="C209" s="25" t="s">
+      <c r="A209" s="141"/>
+      <c r="B209" s="141"/>
+      <c r="C209" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D209" s="149"/>
-      <c r="E209" s="149"/>
+      <c r="D209" s="140"/>
+      <c r="E209" s="140"/>
     </row>
     <row r="210" spans="1:5" ht="16.5">
-      <c r="A210" s="148"/>
-      <c r="B210" s="148"/>
-      <c r="C210" s="25" t="s">
+      <c r="A210" s="141"/>
+      <c r="B210" s="141"/>
+      <c r="C210" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D210" s="149"/>
-      <c r="E210" s="149"/>
+      <c r="D210" s="140"/>
+      <c r="E210" s="140"/>
     </row>
     <row r="211" spans="1:5" ht="16.5">
-      <c r="A211" s="148"/>
-      <c r="B211" s="148"/>
-      <c r="C211" s="25" t="s">
+      <c r="A211" s="141"/>
+      <c r="B211" s="141"/>
+      <c r="C211" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D211" s="149"/>
-      <c r="E211" s="149"/>
+      <c r="D211" s="140"/>
+      <c r="E211" s="140"/>
     </row>
     <row r="212" spans="1:5" ht="16.5">
-      <c r="A212" s="148"/>
-      <c r="B212" s="148"/>
-      <c r="C212" s="25" t="s">
+      <c r="A212" s="141"/>
+      <c r="B212" s="141"/>
+      <c r="C212" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D212" s="149"/>
-      <c r="E212" s="149"/>
+      <c r="D212" s="140"/>
+      <c r="E212" s="140"/>
     </row>
     <row r="213" spans="1:5" ht="16.5">
-      <c r="A213" s="148"/>
-      <c r="B213" s="148" t="s">
+      <c r="A213" s="141"/>
+      <c r="B213" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="C213" s="25" t="s">
+      <c r="C213" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D213" s="149"/>
-      <c r="E213" s="149"/>
+      <c r="D213" s="140"/>
+      <c r="E213" s="140"/>
     </row>
     <row r="214" spans="1:5" ht="16.5">
-      <c r="A214" s="148"/>
-      <c r="B214" s="148"/>
-      <c r="C214" s="25" t="s">
+      <c r="A214" s="141"/>
+      <c r="B214" s="141"/>
+      <c r="C214" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D214" s="149"/>
-      <c r="E214" s="149"/>
+      <c r="D214" s="140"/>
+      <c r="E214" s="140"/>
     </row>
     <row r="215" spans="1:5" ht="16.5">
-      <c r="A215" s="148"/>
-      <c r="B215" s="148"/>
-      <c r="C215" s="25" t="s">
+      <c r="A215" s="141"/>
+      <c r="B215" s="141"/>
+      <c r="C215" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D215" s="149"/>
-      <c r="E215" s="149"/>
+      <c r="D215" s="140"/>
+      <c r="E215" s="140"/>
     </row>
     <row r="216" spans="1:5" ht="16.5">
-      <c r="A216" s="148"/>
-      <c r="B216" s="148"/>
-      <c r="C216" s="25" t="s">
+      <c r="A216" s="141"/>
+      <c r="B216" s="141"/>
+      <c r="C216" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D216" s="149"/>
-      <c r="E216" s="149"/>
+      <c r="D216" s="140"/>
+      <c r="E216" s="140"/>
     </row>
     <row r="217" spans="1:5" ht="16.5">
-      <c r="A217" s="148"/>
-      <c r="B217" s="148"/>
-      <c r="C217" s="25" t="s">
+      <c r="A217" s="141"/>
+      <c r="B217" s="141"/>
+      <c r="C217" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D217" s="149"/>
-      <c r="E217" s="149"/>
+      <c r="D217" s="140"/>
+      <c r="E217" s="140"/>
     </row>
     <row r="218" spans="1:5" ht="16.5">
-      <c r="A218" s="148"/>
-      <c r="B218" s="148"/>
-      <c r="C218" s="25" t="s">
+      <c r="A218" s="141"/>
+      <c r="B218" s="141"/>
+      <c r="C218" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D218" s="149"/>
-      <c r="E218" s="149"/>
+      <c r="D218" s="140"/>
+      <c r="E218" s="140"/>
     </row>
     <row r="219" spans="1:5" ht="16.5">
-      <c r="A219" s="148"/>
-      <c r="B219" s="148"/>
-      <c r="C219" s="25" t="s">
+      <c r="A219" s="141"/>
+      <c r="B219" s="141"/>
+      <c r="C219" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D219" s="149"/>
-      <c r="E219" s="149"/>
+      <c r="D219" s="140"/>
+      <c r="E219" s="140"/>
     </row>
     <row r="220" spans="1:5" ht="16.5">
-      <c r="A220" s="148"/>
-      <c r="B220" s="148" t="s">
+      <c r="A220" s="141"/>
+      <c r="B220" s="141" t="s">
         <v>120</v>
       </c>
-      <c r="C220" s="25" t="s">
+      <c r="C220" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D220" s="149"/>
-      <c r="E220" s="149"/>
+      <c r="D220" s="140"/>
+      <c r="E220" s="140"/>
     </row>
     <row r="221" spans="1:5" ht="16.5">
-      <c r="A221" s="148"/>
-      <c r="B221" s="148"/>
-      <c r="C221" s="25" t="s">
+      <c r="A221" s="141"/>
+      <c r="B221" s="141"/>
+      <c r="C221" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="D221" s="149"/>
-      <c r="E221" s="149"/>
+      <c r="D221" s="140"/>
+      <c r="E221" s="140"/>
     </row>
     <row r="222" spans="1:5" ht="16.5">
-      <c r="A222" s="148"/>
-      <c r="B222" s="148"/>
-      <c r="C222" s="25" t="s">
+      <c r="A222" s="141"/>
+      <c r="B222" s="141"/>
+      <c r="C222" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D222" s="149"/>
-      <c r="E222" s="149"/>
+      <c r="D222" s="140"/>
+      <c r="E222" s="140"/>
     </row>
     <row r="223" spans="1:5" ht="16.5">
-      <c r="A223" s="148"/>
-      <c r="B223" s="148"/>
-      <c r="C223" s="25" t="s">
+      <c r="A223" s="141"/>
+      <c r="B223" s="141"/>
+      <c r="C223" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="D223" s="149"/>
-      <c r="E223" s="149"/>
+      <c r="D223" s="140"/>
+      <c r="E223" s="140"/>
     </row>
     <row r="224" spans="1:5" ht="16.5">
-      <c r="A224" s="148"/>
-      <c r="B224" s="148"/>
-      <c r="C224" s="25" t="s">
+      <c r="A224" s="141"/>
+      <c r="B224" s="141"/>
+      <c r="C224" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="D224" s="149"/>
-      <c r="E224" s="149"/>
+      <c r="D224" s="140"/>
+      <c r="E224" s="140"/>
     </row>
     <row r="225" spans="1:5" ht="16.5">
-      <c r="A225" s="148" t="s">
+      <c r="A225" s="141" t="s">
         <v>151</v>
       </c>
-      <c r="B225" s="148" t="s">
+      <c r="B225" s="141" t="s">
         <v>95</v>
       </c>
-      <c r="C225" s="25" t="s">
+      <c r="C225" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D225" s="149"/>
-      <c r="E225" s="149"/>
+      <c r="D225" s="140"/>
+      <c r="E225" s="140"/>
     </row>
     <row r="226" spans="1:5" ht="16.5">
-      <c r="A226" s="148"/>
-      <c r="B226" s="148"/>
-      <c r="C226" s="25" t="s">
+      <c r="A226" s="141"/>
+      <c r="B226" s="141"/>
+      <c r="C226" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D226" s="149"/>
-      <c r="E226" s="149"/>
+      <c r="D226" s="140"/>
+      <c r="E226" s="140"/>
     </row>
     <row r="227" spans="1:5" ht="16.5">
-      <c r="A227" s="148"/>
-      <c r="B227" s="148"/>
-      <c r="C227" s="25" t="s">
+      <c r="A227" s="141"/>
+      <c r="B227" s="141"/>
+      <c r="C227" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D227" s="149"/>
-      <c r="E227" s="149"/>
+      <c r="D227" s="140"/>
+      <c r="E227" s="140"/>
     </row>
     <row r="228" spans="1:5" ht="16.5">
-      <c r="A228" s="148"/>
-      <c r="B228" s="148"/>
-      <c r="C228" s="25" t="s">
+      <c r="A228" s="141"/>
+      <c r="B228" s="141"/>
+      <c r="C228" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D228" s="149"/>
-      <c r="E228" s="149"/>
+      <c r="D228" s="140"/>
+      <c r="E228" s="140"/>
     </row>
     <row r="229" spans="1:5" ht="16.5">
-      <c r="A229" s="148"/>
-      <c r="B229" s="148"/>
-      <c r="C229" s="25" t="s">
+      <c r="A229" s="141"/>
+      <c r="B229" s="141"/>
+      <c r="C229" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D229" s="149"/>
-      <c r="E229" s="149"/>
+      <c r="D229" s="140"/>
+      <c r="E229" s="140"/>
     </row>
     <row r="230" spans="1:5" ht="16.5">
-      <c r="A230" s="148"/>
-      <c r="B230" s="148" t="s">
+      <c r="A230" s="141"/>
+      <c r="B230" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="C230" s="25" t="s">
+      <c r="C230" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D230" s="149"/>
-      <c r="E230" s="149"/>
+      <c r="D230" s="140"/>
+      <c r="E230" s="140"/>
     </row>
     <row r="231" spans="1:5" ht="16.5">
-      <c r="A231" s="148"/>
-      <c r="B231" s="148"/>
-      <c r="C231" s="25" t="s">
+      <c r="A231" s="141"/>
+      <c r="B231" s="141"/>
+      <c r="C231" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D231" s="149"/>
-      <c r="E231" s="149"/>
+      <c r="D231" s="140"/>
+      <c r="E231" s="140"/>
     </row>
     <row r="232" spans="1:5" ht="16.5">
-      <c r="A232" s="148"/>
-      <c r="B232" s="148"/>
-      <c r="C232" s="25" t="s">
+      <c r="A232" s="141"/>
+      <c r="B232" s="141"/>
+      <c r="C232" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D232" s="149"/>
-      <c r="E232" s="149"/>
+      <c r="D232" s="140"/>
+      <c r="E232" s="140"/>
     </row>
     <row r="233" spans="1:5" ht="16.5">
-      <c r="A233" s="148"/>
-      <c r="B233" s="148"/>
-      <c r="C233" s="25" t="s">
+      <c r="A233" s="141"/>
+      <c r="B233" s="141"/>
+      <c r="C233" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D233" s="149"/>
-      <c r="E233" s="149"/>
+      <c r="D233" s="140"/>
+      <c r="E233" s="140"/>
     </row>
     <row r="234" spans="1:5" ht="16.5">
-      <c r="A234" s="148"/>
-      <c r="B234" s="148"/>
-      <c r="C234" s="25" t="s">
+      <c r="A234" s="141"/>
+      <c r="B234" s="141"/>
+      <c r="C234" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D234" s="149"/>
-      <c r="E234" s="149"/>
+      <c r="D234" s="140"/>
+      <c r="E234" s="140"/>
     </row>
     <row r="235" spans="1:5" ht="16.5">
-      <c r="A235" s="148"/>
-      <c r="B235" s="148"/>
-      <c r="C235" s="25" t="s">
+      <c r="A235" s="141"/>
+      <c r="B235" s="141"/>
+      <c r="C235" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D235" s="149"/>
-      <c r="E235" s="149"/>
+      <c r="D235" s="140"/>
+      <c r="E235" s="140"/>
     </row>
     <row r="236" spans="1:5" ht="16.5">
-      <c r="A236" s="148"/>
-      <c r="B236" s="148"/>
-      <c r="C236" s="25" t="s">
+      <c r="A236" s="141"/>
+      <c r="B236" s="141"/>
+      <c r="C236" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D236" s="149"/>
-      <c r="E236" s="149"/>
+      <c r="D236" s="140"/>
+      <c r="E236" s="140"/>
     </row>
     <row r="237" spans="1:5" ht="16.5">
-      <c r="A237" s="148"/>
-      <c r="B237" s="148" t="s">
+      <c r="A237" s="141"/>
+      <c r="B237" s="141" t="s">
         <v>120</v>
       </c>
-      <c r="C237" s="25" t="s">
+      <c r="C237" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D237" s="149"/>
-      <c r="E237" s="149"/>
+      <c r="D237" s="140"/>
+      <c r="E237" s="140"/>
     </row>
     <row r="238" spans="1:5" ht="16.5">
-      <c r="A238" s="148"/>
-      <c r="B238" s="148"/>
-      <c r="C238" s="25" t="s">
+      <c r="A238" s="141"/>
+      <c r="B238" s="141"/>
+      <c r="C238" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="D238" s="149"/>
-      <c r="E238" s="149"/>
+      <c r="D238" s="140"/>
+      <c r="E238" s="140"/>
     </row>
     <row r="239" spans="1:5" ht="16.5">
-      <c r="A239" s="148"/>
-      <c r="B239" s="148"/>
-      <c r="C239" s="25" t="s">
+      <c r="A239" s="141"/>
+      <c r="B239" s="141"/>
+      <c r="C239" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D239" s="149"/>
-      <c r="E239" s="149"/>
+      <c r="D239" s="140"/>
+      <c r="E239" s="140"/>
     </row>
     <row r="240" spans="1:5" ht="16.5">
-      <c r="A240" s="148"/>
-      <c r="B240" s="148"/>
-      <c r="C240" s="25" t="s">
+      <c r="A240" s="141"/>
+      <c r="B240" s="141"/>
+      <c r="C240" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="D240" s="149"/>
-      <c r="E240" s="149"/>
+      <c r="D240" s="140"/>
+      <c r="E240" s="140"/>
     </row>
     <row r="241" spans="1:5" ht="16.5">
-      <c r="A241" s="148"/>
-      <c r="B241" s="148"/>
-      <c r="C241" s="25" t="s">
+      <c r="A241" s="141"/>
+      <c r="B241" s="141"/>
+      <c r="C241" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="D241" s="149"/>
-      <c r="E241" s="149"/>
+      <c r="D241" s="140"/>
+      <c r="E241" s="140"/>
     </row>
     <row r="242" spans="1:5" ht="16.5">
-      <c r="A242" s="148" t="s">
+      <c r="A242" s="141" t="s">
         <v>152</v>
       </c>
-      <c r="B242" s="148" t="s">
+      <c r="B242" s="141" t="s">
         <v>95</v>
       </c>
-      <c r="C242" s="25" t="s">
+      <c r="C242" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D242" s="149"/>
-      <c r="E242" s="149"/>
+      <c r="D242" s="140"/>
+      <c r="E242" s="140"/>
     </row>
     <row r="243" spans="1:5" ht="16.5">
-      <c r="A243" s="148"/>
-      <c r="B243" s="148"/>
-      <c r="C243" s="25" t="s">
+      <c r="A243" s="141"/>
+      <c r="B243" s="141"/>
+      <c r="C243" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D243" s="149"/>
-      <c r="E243" s="149"/>
+      <c r="D243" s="140"/>
+      <c r="E243" s="140"/>
     </row>
     <row r="244" spans="1:5" ht="16.5">
-      <c r="A244" s="148"/>
-      <c r="B244" s="148"/>
-      <c r="C244" s="25" t="s">
+      <c r="A244" s="141"/>
+      <c r="B244" s="141"/>
+      <c r="C244" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D244" s="149"/>
-      <c r="E244" s="149"/>
+      <c r="D244" s="140"/>
+      <c r="E244" s="140"/>
     </row>
     <row r="245" spans="1:5" ht="16.5">
-      <c r="A245" s="148"/>
-      <c r="B245" s="148"/>
-      <c r="C245" s="25" t="s">
+      <c r="A245" s="141"/>
+      <c r="B245" s="141"/>
+      <c r="C245" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D245" s="149"/>
-      <c r="E245" s="149"/>
+      <c r="D245" s="140"/>
+      <c r="E245" s="140"/>
     </row>
     <row r="246" spans="1:5" ht="16.5">
-      <c r="A246" s="148"/>
-      <c r="B246" s="148"/>
-      <c r="C246" s="25" t="s">
+      <c r="A246" s="141"/>
+      <c r="B246" s="141"/>
+      <c r="C246" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D246" s="149"/>
-      <c r="E246" s="149"/>
+      <c r="D246" s="140"/>
+      <c r="E246" s="140"/>
     </row>
     <row r="247" spans="1:5" ht="16.5">
-      <c r="A247" s="148"/>
-      <c r="B247" s="148" t="s">
+      <c r="A247" s="141"/>
+      <c r="B247" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="C247" s="25" t="s">
+      <c r="C247" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D247" s="149"/>
-      <c r="E247" s="149"/>
+      <c r="D247" s="140"/>
+      <c r="E247" s="140"/>
     </row>
     <row r="248" spans="1:5" ht="16.5">
-      <c r="A248" s="148"/>
-      <c r="B248" s="148"/>
-      <c r="C248" s="25" t="s">
+      <c r="A248" s="141"/>
+      <c r="B248" s="141"/>
+      <c r="C248" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D248" s="149"/>
-      <c r="E248" s="149"/>
+      <c r="D248" s="140"/>
+      <c r="E248" s="140"/>
     </row>
     <row r="249" spans="1:5" ht="16.5">
-      <c r="A249" s="148"/>
-      <c r="B249" s="148"/>
-      <c r="C249" s="25" t="s">
+      <c r="A249" s="141"/>
+      <c r="B249" s="141"/>
+      <c r="C249" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D249" s="149"/>
-      <c r="E249" s="149"/>
+      <c r="D249" s="140"/>
+      <c r="E249" s="140"/>
     </row>
     <row r="250" spans="1:5" ht="16.5">
-      <c r="A250" s="148"/>
-      <c r="B250" s="148"/>
-      <c r="C250" s="25" t="s">
+      <c r="A250" s="141"/>
+      <c r="B250" s="141"/>
+      <c r="C250" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D250" s="149"/>
-      <c r="E250" s="149"/>
+      <c r="D250" s="140"/>
+      <c r="E250" s="140"/>
     </row>
     <row r="251" spans="1:5" ht="16.5">
-      <c r="A251" s="148"/>
-      <c r="B251" s="148"/>
-      <c r="C251" s="25" t="s">
+      <c r="A251" s="141"/>
+      <c r="B251" s="141"/>
+      <c r="C251" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D251" s="149"/>
-      <c r="E251" s="149"/>
+      <c r="D251" s="140"/>
+      <c r="E251" s="140"/>
     </row>
     <row r="252" spans="1:5" ht="16.5">
-      <c r="A252" s="148"/>
-      <c r="B252" s="148"/>
-      <c r="C252" s="25" t="s">
+      <c r="A252" s="141"/>
+      <c r="B252" s="141"/>
+      <c r="C252" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D252" s="149"/>
-      <c r="E252" s="149"/>
+      <c r="D252" s="140"/>
+      <c r="E252" s="140"/>
     </row>
     <row r="253" spans="1:5" ht="16.5">
-      <c r="A253" s="148"/>
-      <c r="B253" s="148"/>
-      <c r="C253" s="25" t="s">
+      <c r="A253" s="141"/>
+      <c r="B253" s="141"/>
+      <c r="C253" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D253" s="149"/>
-      <c r="E253" s="149"/>
+      <c r="D253" s="140"/>
+      <c r="E253" s="140"/>
     </row>
     <row r="254" spans="1:5" ht="16.5">
-      <c r="A254" s="148"/>
-      <c r="B254" s="148" t="s">
+      <c r="A254" s="141"/>
+      <c r="B254" s="141" t="s">
         <v>125</v>
       </c>
-      <c r="C254" s="25" t="s">
+      <c r="C254" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D254" s="149"/>
-      <c r="E254" s="149"/>
+      <c r="D254" s="140"/>
+      <c r="E254" s="140"/>
     </row>
     <row r="255" spans="1:5" ht="16.5">
-      <c r="A255" s="148"/>
-      <c r="B255" s="148"/>
-      <c r="C255" s="25" t="s">
+      <c r="A255" s="141"/>
+      <c r="B255" s="141"/>
+      <c r="C255" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D255" s="149"/>
-      <c r="E255" s="149"/>
+      <c r="D255" s="140"/>
+      <c r="E255" s="140"/>
     </row>
     <row r="256" spans="1:5" ht="16.5">
-      <c r="A256" s="148"/>
-      <c r="B256" s="148"/>
-      <c r="C256" s="25" t="s">
+      <c r="A256" s="141"/>
+      <c r="B256" s="141"/>
+      <c r="C256" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="D256" s="149"/>
-      <c r="E256" s="149"/>
+      <c r="D256" s="140"/>
+      <c r="E256" s="140"/>
     </row>
     <row r="257" spans="1:5" ht="16.5">
-      <c r="A257" s="148"/>
-      <c r="B257" s="148"/>
-      <c r="C257" s="25" t="s">
+      <c r="A257" s="141"/>
+      <c r="B257" s="141"/>
+      <c r="C257" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="D257" s="149"/>
-      <c r="E257" s="149"/>
+      <c r="D257" s="140"/>
+      <c r="E257" s="140"/>
     </row>
     <row r="258" spans="1:5" ht="16.5">
-      <c r="A258" s="148"/>
-      <c r="B258" s="148"/>
-      <c r="C258" s="25" t="s">
+      <c r="A258" s="141"/>
+      <c r="B258" s="141"/>
+      <c r="C258" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D258" s="149"/>
-      <c r="E258" s="149"/>
+      <c r="D258" s="140"/>
+      <c r="E258" s="140"/>
     </row>
     <row r="259" spans="1:5" ht="16.5">
-      <c r="A259" s="148"/>
-      <c r="B259" s="148" t="s">
+      <c r="A259" s="141"/>
+      <c r="B259" s="141" t="s">
         <v>120</v>
       </c>
-      <c r="C259" s="25" t="s">
+      <c r="C259" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D259" s="149"/>
-      <c r="E259" s="149"/>
+      <c r="D259" s="140"/>
+      <c r="E259" s="140"/>
     </row>
     <row r="260" spans="1:5" ht="16.5">
-      <c r="A260" s="148"/>
-      <c r="B260" s="148"/>
-      <c r="C260" s="25" t="s">
+      <c r="A260" s="141"/>
+      <c r="B260" s="141"/>
+      <c r="C260" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="D260" s="149"/>
-      <c r="E260" s="149"/>
+      <c r="D260" s="140"/>
+      <c r="E260" s="140"/>
     </row>
     <row r="261" spans="1:5" ht="16.5">
-      <c r="A261" s="148"/>
-      <c r="B261" s="148"/>
-      <c r="C261" s="25" t="s">
+      <c r="A261" s="141"/>
+      <c r="B261" s="141"/>
+      <c r="C261" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D261" s="149"/>
-      <c r="E261" s="149"/>
+      <c r="D261" s="140"/>
+      <c r="E261" s="140"/>
     </row>
     <row r="262" spans="1:5" ht="16.5">
-      <c r="A262" s="148"/>
-      <c r="B262" s="148"/>
-      <c r="C262" s="25" t="s">
+      <c r="A262" s="141"/>
+      <c r="B262" s="141"/>
+      <c r="C262" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D262" s="149"/>
-      <c r="E262" s="149"/>
+      <c r="D262" s="140"/>
+      <c r="E262" s="140"/>
     </row>
     <row r="263" spans="1:5" ht="16.5">
-      <c r="A263" s="148" t="s">
+      <c r="A263" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="B263" s="148" t="s">
+      <c r="B263" s="141" t="s">
         <v>95</v>
       </c>
-      <c r="C263" s="25" t="s">
+      <c r="C263" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D263" s="149"/>
-      <c r="E263" s="149"/>
+      <c r="D263" s="140"/>
+      <c r="E263" s="140"/>
     </row>
     <row r="264" spans="1:5" ht="16.5">
-      <c r="A264" s="148"/>
-      <c r="B264" s="148"/>
-      <c r="C264" s="25" t="s">
+      <c r="A264" s="141"/>
+      <c r="B264" s="141"/>
+      <c r="C264" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D264" s="149"/>
-      <c r="E264" s="149"/>
+      <c r="D264" s="140"/>
+      <c r="E264" s="140"/>
     </row>
     <row r="265" spans="1:5" ht="16.5">
-      <c r="A265" s="148"/>
-      <c r="B265" s="148"/>
-      <c r="C265" s="25" t="s">
+      <c r="A265" s="141"/>
+      <c r="B265" s="141"/>
+      <c r="C265" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D265" s="149"/>
-      <c r="E265" s="149"/>
+      <c r="D265" s="140"/>
+      <c r="E265" s="140"/>
     </row>
     <row r="266" spans="1:5" ht="16.5">
-      <c r="A266" s="148"/>
-      <c r="B266" s="148"/>
-      <c r="C266" s="25" t="s">
+      <c r="A266" s="141"/>
+      <c r="B266" s="141"/>
+      <c r="C266" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D266" s="149"/>
-      <c r="E266" s="149"/>
+      <c r="D266" s="140"/>
+      <c r="E266" s="140"/>
     </row>
     <row r="267" spans="1:5" ht="16.5">
-      <c r="A267" s="148"/>
-      <c r="B267" s="148"/>
-      <c r="C267" s="25" t="s">
+      <c r="A267" s="141"/>
+      <c r="B267" s="141"/>
+      <c r="C267" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D267" s="149"/>
-      <c r="E267" s="149"/>
+      <c r="D267" s="140"/>
+      <c r="E267" s="140"/>
     </row>
     <row r="268" spans="1:5" ht="16.5">
-      <c r="A268" s="148"/>
-      <c r="B268" s="148" t="s">
+      <c r="A268" s="141"/>
+      <c r="B268" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="C268" s="25" t="s">
+      <c r="C268" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D268" s="149"/>
-      <c r="E268" s="149"/>
+      <c r="D268" s="140"/>
+      <c r="E268" s="140"/>
     </row>
     <row r="269" spans="1:5" ht="16.5">
-      <c r="A269" s="148"/>
-      <c r="B269" s="148"/>
-      <c r="C269" s="25" t="s">
+      <c r="A269" s="141"/>
+      <c r="B269" s="141"/>
+      <c r="C269" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D269" s="149"/>
-      <c r="E269" s="149"/>
+      <c r="D269" s="140"/>
+      <c r="E269" s="140"/>
     </row>
     <row r="270" spans="1:5" ht="16.5">
-      <c r="A270" s="148"/>
-      <c r="B270" s="148"/>
-      <c r="C270" s="25" t="s">
+      <c r="A270" s="141"/>
+      <c r="B270" s="141"/>
+      <c r="C270" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D270" s="149"/>
-      <c r="E270" s="149"/>
+      <c r="D270" s="140"/>
+      <c r="E270" s="140"/>
     </row>
     <row r="271" spans="1:5" ht="16.5">
-      <c r="A271" s="148"/>
-      <c r="B271" s="148"/>
-      <c r="C271" s="25" t="s">
+      <c r="A271" s="141"/>
+      <c r="B271" s="141"/>
+      <c r="C271" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D271" s="149"/>
-      <c r="E271" s="149"/>
+      <c r="D271" s="140"/>
+      <c r="E271" s="140"/>
     </row>
     <row r="272" spans="1:5" ht="16.5">
-      <c r="A272" s="148"/>
-      <c r="B272" s="148"/>
-      <c r="C272" s="25" t="s">
+      <c r="A272" s="141"/>
+      <c r="B272" s="141"/>
+      <c r="C272" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D272" s="149"/>
-      <c r="E272" s="149"/>
+      <c r="D272" s="140"/>
+      <c r="E272" s="140"/>
     </row>
     <row r="273" spans="1:5" ht="16.5">
-      <c r="A273" s="148"/>
-      <c r="B273" s="148"/>
-      <c r="C273" s="25" t="s">
+      <c r="A273" s="141"/>
+      <c r="B273" s="141"/>
+      <c r="C273" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D273" s="149"/>
-      <c r="E273" s="149"/>
+      <c r="D273" s="140"/>
+      <c r="E273" s="140"/>
     </row>
     <row r="274" spans="1:5" ht="16.5">
-      <c r="A274" s="148"/>
-      <c r="B274" s="148"/>
-      <c r="C274" s="25" t="s">
+      <c r="A274" s="141"/>
+      <c r="B274" s="141"/>
+      <c r="C274" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D274" s="149"/>
-      <c r="E274" s="149"/>
+      <c r="D274" s="140"/>
+      <c r="E274" s="140"/>
     </row>
     <row r="275" spans="1:5" ht="16.5">
-      <c r="A275" s="148"/>
-      <c r="B275" s="148" t="s">
+      <c r="A275" s="141"/>
+      <c r="B275" s="141" t="s">
         <v>125</v>
       </c>
-      <c r="C275" s="25" t="s">
+      <c r="C275" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D275" s="149"/>
-      <c r="E275" s="149"/>
+      <c r="D275" s="140"/>
+      <c r="E275" s="140"/>
     </row>
     <row r="276" spans="1:5" ht="16.5">
-      <c r="A276" s="148"/>
-      <c r="B276" s="148"/>
-      <c r="C276" s="25" t="s">
+      <c r="A276" s="141"/>
+      <c r="B276" s="141"/>
+      <c r="C276" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D276" s="149"/>
-      <c r="E276" s="149"/>
+      <c r="D276" s="140"/>
+      <c r="E276" s="140"/>
     </row>
     <row r="277" spans="1:5" ht="16.5">
-      <c r="A277" s="148"/>
-      <c r="B277" s="148"/>
-      <c r="C277" s="25" t="s">
+      <c r="A277" s="141"/>
+      <c r="B277" s="141"/>
+      <c r="C277" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="D277" s="149"/>
-      <c r="E277" s="149"/>
+      <c r="D277" s="140"/>
+      <c r="E277" s="140"/>
     </row>
     <row r="278" spans="1:5" ht="16.5">
-      <c r="A278" s="148"/>
-      <c r="B278" s="148"/>
-      <c r="C278" s="25" t="s">
+      <c r="A278" s="141"/>
+      <c r="B278" s="141"/>
+      <c r="C278" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="D278" s="149"/>
-      <c r="E278" s="149"/>
+      <c r="D278" s="140"/>
+      <c r="E278" s="140"/>
     </row>
     <row r="279" spans="1:5" ht="16.5">
-      <c r="A279" s="148"/>
-      <c r="B279" s="148"/>
-      <c r="C279" s="25" t="s">
+      <c r="A279" s="141"/>
+      <c r="B279" s="141"/>
+      <c r="C279" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D279" s="149"/>
-      <c r="E279" s="149"/>
+      <c r="D279" s="140"/>
+      <c r="E279" s="140"/>
     </row>
     <row r="280" spans="1:5" ht="16.5">
-      <c r="A280" s="148"/>
-      <c r="B280" s="148"/>
-      <c r="C280" s="25" t="s">
+      <c r="A280" s="141"/>
+      <c r="B280" s="141"/>
+      <c r="C280" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="D280" s="149"/>
-      <c r="E280" s="149"/>
+      <c r="D280" s="140"/>
+      <c r="E280" s="140"/>
     </row>
     <row r="281" spans="1:5" ht="16.5">
-      <c r="A281" s="148"/>
-      <c r="B281" s="148"/>
-      <c r="C281" s="25" t="s">
+      <c r="A281" s="141"/>
+      <c r="B281" s="141"/>
+      <c r="C281" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D281" s="149"/>
-      <c r="E281" s="149"/>
+      <c r="D281" s="140"/>
+      <c r="E281" s="140"/>
     </row>
     <row r="282" spans="1:5" ht="16.5">
-      <c r="A282" s="148"/>
-      <c r="B282" s="148"/>
-      <c r="C282" s="25" t="s">
+      <c r="A282" s="141"/>
+      <c r="B282" s="141"/>
+      <c r="C282" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D282" s="149"/>
-      <c r="E282" s="149"/>
+      <c r="D282" s="140"/>
+      <c r="E282" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="172">
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="E20:E27"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="E9:E15"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="A4:A32"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D9:D15"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D20:D27"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="A33:A55"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="D45:D50"/>
-    <mergeCell ref="E45:E50"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="D51:D55"/>
-    <mergeCell ref="E51:E55"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="B38:B44"/>
-    <mergeCell ref="D38:D44"/>
-    <mergeCell ref="E38:E44"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="D73:D77"/>
-    <mergeCell ref="E73:E77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="A56:A80"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="E56:E60"/>
-    <mergeCell ref="B61:B67"/>
-    <mergeCell ref="D61:D67"/>
-    <mergeCell ref="E61:E67"/>
-    <mergeCell ref="B68:B72"/>
-    <mergeCell ref="D68:D72"/>
-    <mergeCell ref="E68:E72"/>
-    <mergeCell ref="B98:B102"/>
-    <mergeCell ref="D98:D102"/>
-    <mergeCell ref="E98:E102"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="D103:D105"/>
-    <mergeCell ref="E103:E105"/>
-    <mergeCell ref="A81:A105"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="D81:D85"/>
-    <mergeCell ref="E81:E85"/>
-    <mergeCell ref="B86:B92"/>
-    <mergeCell ref="D86:D92"/>
-    <mergeCell ref="E86:E92"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="D93:D97"/>
-    <mergeCell ref="E93:E97"/>
-    <mergeCell ref="B123:B127"/>
-    <mergeCell ref="D123:D127"/>
-    <mergeCell ref="E123:E127"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="D128:D130"/>
-    <mergeCell ref="E128:E130"/>
-    <mergeCell ref="A106:A130"/>
-    <mergeCell ref="B106:B110"/>
-    <mergeCell ref="D106:D110"/>
-    <mergeCell ref="E106:E110"/>
-    <mergeCell ref="B111:B117"/>
-    <mergeCell ref="D111:D117"/>
-    <mergeCell ref="E111:E117"/>
-    <mergeCell ref="B118:B122"/>
-    <mergeCell ref="D118:D122"/>
-    <mergeCell ref="E118:E122"/>
-    <mergeCell ref="A131:A155"/>
-    <mergeCell ref="B131:B135"/>
-    <mergeCell ref="D131:D135"/>
-    <mergeCell ref="E131:E135"/>
-    <mergeCell ref="B136:B142"/>
-    <mergeCell ref="D136:D142"/>
-    <mergeCell ref="E136:E142"/>
-    <mergeCell ref="B143:B147"/>
-    <mergeCell ref="D143:D147"/>
-    <mergeCell ref="E143:E147"/>
-    <mergeCell ref="D156:D160"/>
-    <mergeCell ref="E156:E160"/>
-    <mergeCell ref="B161:B167"/>
-    <mergeCell ref="D161:D167"/>
-    <mergeCell ref="E161:E167"/>
-    <mergeCell ref="B168:B172"/>
-    <mergeCell ref="D168:D172"/>
-    <mergeCell ref="E168:E172"/>
-    <mergeCell ref="B148:B152"/>
-    <mergeCell ref="D148:D152"/>
-    <mergeCell ref="E148:E152"/>
-    <mergeCell ref="B153:B155"/>
-    <mergeCell ref="D153:D155"/>
-    <mergeCell ref="E153:E155"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="B280:B282"/>
+    <mergeCell ref="D280:D282"/>
+    <mergeCell ref="E280:E282"/>
+    <mergeCell ref="A263:A282"/>
+    <mergeCell ref="B263:B267"/>
+    <mergeCell ref="D263:D267"/>
+    <mergeCell ref="E263:E267"/>
+    <mergeCell ref="B268:B274"/>
+    <mergeCell ref="D268:D274"/>
+    <mergeCell ref="E268:E274"/>
+    <mergeCell ref="B275:B279"/>
+    <mergeCell ref="D275:D279"/>
+    <mergeCell ref="E275:E279"/>
+    <mergeCell ref="D259:D262"/>
+    <mergeCell ref="E259:E262"/>
+    <mergeCell ref="B259:B262"/>
+    <mergeCell ref="A242:A262"/>
+    <mergeCell ref="B242:B246"/>
+    <mergeCell ref="D242:D246"/>
+    <mergeCell ref="E242:E246"/>
+    <mergeCell ref="B247:B253"/>
+    <mergeCell ref="D247:D253"/>
+    <mergeCell ref="E247:E253"/>
+    <mergeCell ref="B254:B258"/>
+    <mergeCell ref="D254:D258"/>
+    <mergeCell ref="E254:E258"/>
+    <mergeCell ref="B237:B241"/>
+    <mergeCell ref="A225:A241"/>
+    <mergeCell ref="B225:B229"/>
+    <mergeCell ref="D225:D229"/>
+    <mergeCell ref="E225:E229"/>
+    <mergeCell ref="B230:B236"/>
+    <mergeCell ref="D230:D236"/>
+    <mergeCell ref="E230:E236"/>
+    <mergeCell ref="D237:D241"/>
+    <mergeCell ref="E237:E241"/>
+    <mergeCell ref="B220:B224"/>
+    <mergeCell ref="A208:A224"/>
+    <mergeCell ref="B208:B212"/>
+    <mergeCell ref="D208:D212"/>
+    <mergeCell ref="E208:E212"/>
+    <mergeCell ref="B213:B219"/>
+    <mergeCell ref="D213:D219"/>
+    <mergeCell ref="E213:E219"/>
+    <mergeCell ref="D220:D224"/>
+    <mergeCell ref="E220:E224"/>
     <mergeCell ref="E194:E198"/>
     <mergeCell ref="B199:B202"/>
     <mergeCell ref="D199:D202"/>
@@ -6690,55 +5968,780 @@
     <mergeCell ref="D177:D181"/>
     <mergeCell ref="E177:E181"/>
     <mergeCell ref="B156:B160"/>
-    <mergeCell ref="B220:B224"/>
-    <mergeCell ref="A208:A224"/>
-    <mergeCell ref="B208:B212"/>
-    <mergeCell ref="D208:D212"/>
-    <mergeCell ref="E208:E212"/>
-    <mergeCell ref="B213:B219"/>
-    <mergeCell ref="D213:D219"/>
-    <mergeCell ref="E213:E219"/>
-    <mergeCell ref="D220:D224"/>
-    <mergeCell ref="E220:E224"/>
-    <mergeCell ref="B254:B258"/>
-    <mergeCell ref="D254:D258"/>
-    <mergeCell ref="E254:E258"/>
-    <mergeCell ref="B237:B241"/>
-    <mergeCell ref="A225:A241"/>
-    <mergeCell ref="B225:B229"/>
-    <mergeCell ref="D225:D229"/>
-    <mergeCell ref="E225:E229"/>
-    <mergeCell ref="B230:B236"/>
-    <mergeCell ref="D230:D236"/>
-    <mergeCell ref="E230:E236"/>
-    <mergeCell ref="D237:D241"/>
-    <mergeCell ref="E237:E241"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="B280:B282"/>
-    <mergeCell ref="D280:D282"/>
-    <mergeCell ref="E280:E282"/>
-    <mergeCell ref="A263:A282"/>
-    <mergeCell ref="B263:B267"/>
-    <mergeCell ref="D263:D267"/>
-    <mergeCell ref="E263:E267"/>
-    <mergeCell ref="B268:B274"/>
-    <mergeCell ref="D268:D274"/>
-    <mergeCell ref="E268:E274"/>
-    <mergeCell ref="B275:B279"/>
-    <mergeCell ref="D275:D279"/>
-    <mergeCell ref="E275:E279"/>
-    <mergeCell ref="D259:D262"/>
-    <mergeCell ref="E259:E262"/>
-    <mergeCell ref="B259:B262"/>
-    <mergeCell ref="A242:A262"/>
-    <mergeCell ref="B242:B246"/>
-    <mergeCell ref="D242:D246"/>
-    <mergeCell ref="E242:E246"/>
-    <mergeCell ref="B247:B253"/>
-    <mergeCell ref="D247:D253"/>
-    <mergeCell ref="E247:E253"/>
+    <mergeCell ref="D156:D160"/>
+    <mergeCell ref="E156:E160"/>
+    <mergeCell ref="B161:B167"/>
+    <mergeCell ref="D161:D167"/>
+    <mergeCell ref="E161:E167"/>
+    <mergeCell ref="B168:B172"/>
+    <mergeCell ref="D168:D172"/>
+    <mergeCell ref="E168:E172"/>
+    <mergeCell ref="B148:B152"/>
+    <mergeCell ref="D148:D152"/>
+    <mergeCell ref="E148:E152"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="D153:D155"/>
+    <mergeCell ref="E153:E155"/>
+    <mergeCell ref="A131:A155"/>
+    <mergeCell ref="B131:B135"/>
+    <mergeCell ref="D131:D135"/>
+    <mergeCell ref="E131:E135"/>
+    <mergeCell ref="B136:B142"/>
+    <mergeCell ref="D136:D142"/>
+    <mergeCell ref="E136:E142"/>
+    <mergeCell ref="B143:B147"/>
+    <mergeCell ref="D143:D147"/>
+    <mergeCell ref="E143:E147"/>
+    <mergeCell ref="B123:B127"/>
+    <mergeCell ref="D123:D127"/>
+    <mergeCell ref="E123:E127"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="D128:D130"/>
+    <mergeCell ref="E128:E130"/>
+    <mergeCell ref="A106:A130"/>
+    <mergeCell ref="B106:B110"/>
+    <mergeCell ref="D106:D110"/>
+    <mergeCell ref="E106:E110"/>
+    <mergeCell ref="B111:B117"/>
+    <mergeCell ref="D111:D117"/>
+    <mergeCell ref="E111:E117"/>
+    <mergeCell ref="B118:B122"/>
+    <mergeCell ref="D118:D122"/>
+    <mergeCell ref="E118:E122"/>
+    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="D98:D102"/>
+    <mergeCell ref="E98:E102"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="D103:D105"/>
+    <mergeCell ref="E103:E105"/>
+    <mergeCell ref="A81:A105"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="D81:D85"/>
+    <mergeCell ref="E81:E85"/>
+    <mergeCell ref="B86:B92"/>
+    <mergeCell ref="D86:D92"/>
+    <mergeCell ref="E86:E92"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="D93:D97"/>
+    <mergeCell ref="E93:E97"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="D73:D77"/>
+    <mergeCell ref="E73:E77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="A56:A80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="E56:E60"/>
+    <mergeCell ref="B61:B67"/>
+    <mergeCell ref="D61:D67"/>
+    <mergeCell ref="E61:E67"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="D68:D72"/>
+    <mergeCell ref="E68:E72"/>
+    <mergeCell ref="A33:A55"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="D45:D50"/>
+    <mergeCell ref="E45:E50"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="E51:E55"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="D38:D44"/>
+    <mergeCell ref="E38:E44"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="E20:E27"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="E9:E15"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="A4:A32"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D20:D27"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B15"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="19.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="3" customWidth="1"/>
+    <col min="4" max="7" width="9" style="3"/>
+    <col min="8" max="8" width="9" style="2"/>
+    <col min="9" max="9" width="24.375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="115.5" customHeight="1">
+      <c r="A1" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="18" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="38.25" customHeight="1">
+      <c r="A5" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="105"/>
+    </row>
+    <row r="6" spans="1:9" ht="36" customHeight="1">
+      <c r="A6" s="118"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="106"/>
+    </row>
+    <row r="7" spans="1:9" ht="77.25" customHeight="1">
+      <c r="A7" s="118"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="106"/>
+    </row>
+    <row r="8" spans="1:9" ht="48" hidden="1" customHeight="1">
+      <c r="A8" s="118"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="107"/>
+    </row>
+    <row r="9" spans="1:9" ht="48" customHeight="1">
+      <c r="A9" s="118"/>
+      <c r="B9" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="174" customHeight="1">
+      <c r="A10" s="118"/>
+      <c r="B10" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="173.25" customHeight="1">
+      <c r="A11" s="118"/>
+      <c r="B11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="21.75" customHeight="1">
+      <c r="A12" s="119" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="119" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="105"/>
+    </row>
+    <row r="13" spans="1:9" ht="21.75" customHeight="1">
+      <c r="A13" s="108"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="106"/>
+    </row>
+    <row r="14" spans="1:9" ht="21.75" customHeight="1">
+      <c r="A14" s="108"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="106"/>
+    </row>
+    <row r="15" spans="1:9" ht="75" customHeight="1">
+      <c r="A15" s="108"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="107"/>
+    </row>
+    <row r="16" spans="1:9" ht="72" customHeight="1">
+      <c r="A16" s="108"/>
+      <c r="B16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="87" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="200.25" customHeight="1">
+      <c r="A17" s="108"/>
+      <c r="B17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="186.75" customHeight="1">
+      <c r="A18" s="108"/>
+      <c r="B18" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="60.75" customHeight="1">
+      <c r="A19" s="120" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="90" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" ht="92.25" customHeight="1">
+      <c r="A20" s="120"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" ht="117.75" customHeight="1">
+      <c r="A21" s="120"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" ht="123.75" customHeight="1">
+      <c r="A22" s="120"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" ht="216" customHeight="1">
+      <c r="A23" s="120"/>
+      <c r="B23" s="117" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" ht="216" customHeight="1">
+      <c r="A24" s="120"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="90" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="109"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" ht="189" customHeight="1">
+      <c r="A25" s="108"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="116" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="186.75" customHeight="1">
+      <c r="A26" s="108"/>
+      <c r="B26" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="90" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" ht="173.25" customHeight="1">
+      <c r="A27" s="117" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="90" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" ht="156" customHeight="1">
+      <c r="A28" s="121"/>
+      <c r="B28" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="148" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="123.75" customHeight="1">
+      <c r="A29" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="149" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="116"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="150"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="C12:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G8"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="I5:I8"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="B5:B8"/>
+  </mergeCells>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="28.25" customWidth="1"/>
+    <col min="9" max="9" width="43.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="52.5" customHeight="1">
+      <c r="A1" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1">
+      <c r="A2" s="138"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A5" s="139" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="122" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="135"/>
+    </row>
+    <row r="6" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A6" s="118"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="136"/>
+    </row>
+    <row r="7" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A7" s="118"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="136"/>
+    </row>
+    <row r="8" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A8" s="118"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="136"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A9" s="118"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="136"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A10" s="118"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="136"/>
+    </row>
+    <row r="11" spans="1:9" ht="324.75" customHeight="1">
+      <c r="A11" s="118"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="137"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="C5:G11"/>
+    <mergeCell ref="H5:H11"/>
+    <mergeCell ref="I5:I11"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:A11"/>
+  </mergeCells>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>